--- a/PROYECTO AUTENTICACION/PPS-HU_AU.GA.006 Gestión de cuenta VUCE v0.5.xlsx
+++ b/PROYECTO AUTENTICACION/PPS-HU_AU.GA.006 Gestión de cuenta VUCE v0.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582C1F7F-564A-4973-98D5-38879D02E0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50A91F9-A3AB-4918-8289-7F0E7DAA4C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato 1.0 " sheetId="5" r:id="rId1"/>
@@ -1787,50 +1787,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1847,65 +1805,125 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1916,95 +1934,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2026,15 +1963,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2108,77 +2036,149 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -17632,8 +17632,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:CK98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB41" sqref="AB41"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17668,289 +17668,289 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="128" t="s">
+      <c r="H3" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
-      <c r="AN3" s="128"/>
-      <c r="AO3" s="128"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
       <c r="AP3" s="36"/>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="128"/>
-      <c r="AI4" s="128"/>
-      <c r="AJ4" s="128"/>
-      <c r="AK4" s="128"/>
-      <c r="AL4" s="128"/>
-      <c r="AM4" s="128"/>
-      <c r="AN4" s="128"/>
-      <c r="AO4" s="128"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
       <c r="AP4" s="36"/>
     </row>
     <row r="5" spans="1:55" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:55" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129"/>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="129"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="108"/>
+      <c r="AJ7" s="108"/>
+      <c r="AK7" s="108"/>
+      <c r="AL7" s="108"/>
+      <c r="AM7" s="108"/>
+      <c r="AN7" s="108"/>
+      <c r="AO7" s="108"/>
       <c r="AP7" s="38"/>
     </row>
     <row r="8" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="133"/>
-      <c r="K8" s="130" t="s">
+      <c r="J8" s="112"/>
+      <c r="K8" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="134"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="134"/>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="134"/>
-      <c r="AD8" s="134"/>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="130" t="s">
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="134"/>
-      <c r="AJ8" s="134"/>
-      <c r="AK8" s="134"/>
-      <c r="AL8" s="134"/>
-      <c r="AM8" s="134"/>
-      <c r="AN8" s="134"/>
-      <c r="AO8" s="131"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="113"/>
+      <c r="AJ8" s="113"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="113"/>
+      <c r="AO8" s="110"/>
       <c r="AP8" s="39"/>
     </row>
     <row r="9" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G9" s="171" t="s">
+      <c r="G9" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="172"/>
-      <c r="I9" s="173" t="s">
+      <c r="H9" s="91"/>
+      <c r="I9" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="174"/>
-      <c r="K9" s="175" t="s">
+      <c r="J9" s="93"/>
+      <c r="K9" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="L9" s="176"/>
-      <c r="M9" s="176"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="176"/>
-      <c r="S9" s="176"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="176"/>
-      <c r="Y9" s="176"/>
-      <c r="Z9" s="176"/>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="176"/>
-      <c r="AC9" s="176"/>
-      <c r="AD9" s="176"/>
-      <c r="AE9" s="177"/>
-      <c r="AF9" s="175" t="s">
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="AG9" s="176"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="176"/>
-      <c r="AJ9" s="176"/>
-      <c r="AK9" s="176"/>
-      <c r="AL9" s="176"/>
-      <c r="AM9" s="176"/>
-      <c r="AN9" s="176"/>
-      <c r="AO9" s="177"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="95"/>
+      <c r="AJ9" s="95"/>
+      <c r="AK9" s="95"/>
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="95"/>
+      <c r="AN9" s="95"/>
+      <c r="AO9" s="96"/>
       <c r="AP9" s="40"/>
     </row>
     <row r="10" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="178"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="136"/>
-      <c r="Q10" s="136"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="136"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="136"/>
-      <c r="Y10" s="136"/>
-      <c r="Z10" s="136"/>
-      <c r="AA10" s="136"/>
-      <c r="AB10" s="136"/>
-      <c r="AC10" s="136"/>
-      <c r="AD10" s="136"/>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="136"/>
-      <c r="AI10" s="136"/>
-      <c r="AJ10" s="136"/>
-      <c r="AK10" s="136"/>
-      <c r="AL10" s="136"/>
-      <c r="AM10" s="136"/>
-      <c r="AN10" s="136"/>
-      <c r="AO10" s="137"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="77"/>
       <c r="AP10" s="8"/>
     </row>
     <row r="11" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="178"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="136"/>
-      <c r="U11" s="136"/>
-      <c r="V11" s="136"/>
-      <c r="W11" s="136"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="136"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="136"/>
-      <c r="AI11" s="136"/>
-      <c r="AJ11" s="136"/>
-      <c r="AK11" s="136"/>
-      <c r="AL11" s="136"/>
-      <c r="AM11" s="136"/>
-      <c r="AN11" s="136"/>
-      <c r="AO11" s="137"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="76"/>
+      <c r="AL11" s="76"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="77"/>
       <c r="AP11" s="8"/>
     </row>
     <row r="12" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18001,238 +18001,238 @@
     </row>
     <row r="15" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="182" t="s">
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="183"/>
-      <c r="Q15" s="183"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="183"/>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="183"/>
-      <c r="AF15" s="183"/>
-      <c r="AG15" s="183"/>
-      <c r="AH15" s="183"/>
-      <c r="AI15" s="183"/>
-      <c r="AJ15" s="183"/>
-      <c r="AK15" s="183"/>
-      <c r="AL15" s="183"/>
-      <c r="AM15" s="183"/>
-      <c r="AN15" s="183"/>
-      <c r="AO15" s="184"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="106"/>
       <c r="AP15" s="41"/>
     </row>
     <row r="16" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="156" t="s">
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="157"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="157"/>
-      <c r="AI16" s="157"/>
-      <c r="AJ16" s="157"/>
-      <c r="AK16" s="157"/>
-      <c r="AL16" s="157"/>
-      <c r="AM16" s="157"/>
-      <c r="AN16" s="157"/>
-      <c r="AO16" s="158"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="133"/>
+      <c r="AE16" s="133"/>
+      <c r="AF16" s="133"/>
+      <c r="AG16" s="133"/>
+      <c r="AH16" s="133"/>
+      <c r="AI16" s="133"/>
+      <c r="AJ16" s="133"/>
+      <c r="AK16" s="133"/>
+      <c r="AL16" s="133"/>
+      <c r="AM16" s="133"/>
+      <c r="AN16" s="133"/>
+      <c r="AO16" s="134"/>
       <c r="AP16" s="41"/>
     </row>
     <row r="17" spans="1:89" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="160"/>
-      <c r="AJ17" s="160"/>
-      <c r="AK17" s="160"/>
-      <c r="AL17" s="160"/>
-      <c r="AM17" s="160"/>
-      <c r="AN17" s="160"/>
-      <c r="AO17" s="161"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="136"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="136"/>
+      <c r="X17" s="136"/>
+      <c r="Y17" s="136"/>
+      <c r="Z17" s="136"/>
+      <c r="AA17" s="136"/>
+      <c r="AB17" s="136"/>
+      <c r="AC17" s="136"/>
+      <c r="AD17" s="136"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="136"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="136"/>
+      <c r="AJ17" s="136"/>
+      <c r="AK17" s="136"/>
+      <c r="AL17" s="136"/>
+      <c r="AM17" s="136"/>
+      <c r="AN17" s="136"/>
+      <c r="AO17" s="137"/>
       <c r="AP17" s="41"/>
     </row>
     <row r="18" spans="1:89" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="120"/>
-      <c r="AC18" s="120"/>
-      <c r="AD18" s="120"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="120"/>
-      <c r="AG18" s="120"/>
-      <c r="AH18" s="120"/>
-      <c r="AI18" s="120"/>
-      <c r="AJ18" s="120"/>
-      <c r="AK18" s="120"/>
-      <c r="AL18" s="120"/>
-      <c r="AM18" s="120"/>
-      <c r="AN18" s="120"/>
-      <c r="AO18" s="121"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="139"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="139"/>
+      <c r="AH18" s="139"/>
+      <c r="AI18" s="139"/>
+      <c r="AJ18" s="139"/>
+      <c r="AK18" s="139"/>
+      <c r="AL18" s="139"/>
+      <c r="AM18" s="139"/>
+      <c r="AN18" s="139"/>
+      <c r="AO18" s="140"/>
       <c r="AP18" s="42"/>
       <c r="BW18" s="10"/>
       <c r="CC18" s="10"/>
     </row>
     <row r="19" spans="1:89" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="151"/>
-      <c r="Y19" s="151"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="151"/>
-      <c r="AB19" s="151"/>
-      <c r="AC19" s="151"/>
-      <c r="AD19" s="151"/>
-      <c r="AE19" s="151"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="151"/>
-      <c r="AJ19" s="151"/>
-      <c r="AK19" s="151"/>
-      <c r="AL19" s="151"/>
-      <c r="AM19" s="151"/>
-      <c r="AN19" s="151"/>
-      <c r="AO19" s="152"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="127"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="127"/>
+      <c r="AI19" s="127"/>
+      <c r="AJ19" s="127"/>
+      <c r="AK19" s="127"/>
+      <c r="AL19" s="127"/>
+      <c r="AM19" s="127"/>
+      <c r="AN19" s="127"/>
+      <c r="AO19" s="128"/>
       <c r="AP19" s="42"/>
       <c r="CC19" s="28"/>
     </row>
@@ -18320,15 +18320,15 @@
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
-      <c r="CC21" s="185"/>
-      <c r="CD21" s="185"/>
-      <c r="CE21" s="185"/>
-      <c r="CF21" s="185"/>
-      <c r="CG21" s="185"/>
-      <c r="CH21" s="185"/>
-      <c r="CI21" s="185"/>
-      <c r="CJ21" s="185"/>
-      <c r="CK21" s="185"/>
+      <c r="CC21" s="61"/>
+      <c r="CD21" s="61"/>
+      <c r="CE21" s="61"/>
+      <c r="CF21" s="61"/>
+      <c r="CG21" s="61"/>
+      <c r="CH21" s="61"/>
+      <c r="CI21" s="61"/>
+      <c r="CJ21" s="61"/>
+      <c r="CK21" s="61"/>
     </row>
     <row r="22" spans="1:89" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
@@ -18338,34 +18338,34 @@
       <c r="E22" s="3"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
-      <c r="J22" s="138" t="s">
+      <c r="J22" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="139"/>
-      <c r="Q22" s="139"/>
-      <c r="R22" s="139"/>
-      <c r="S22" s="139"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="139"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="139"/>
-      <c r="Z22" s="139"/>
-      <c r="AA22" s="139"/>
-      <c r="AB22" s="139"/>
-      <c r="AC22" s="139"/>
-      <c r="AD22" s="139"/>
-      <c r="AE22" s="139"/>
-      <c r="AF22" s="139"/>
-      <c r="AG22" s="139"/>
-      <c r="AH22" s="139"/>
-      <c r="AI22" s="140"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115"/>
+      <c r="S22" s="115"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="115"/>
+      <c r="X22" s="115"/>
+      <c r="Y22" s="115"/>
+      <c r="Z22" s="115"/>
+      <c r="AA22" s="115"/>
+      <c r="AB22" s="115"/>
+      <c r="AC22" s="115"/>
+      <c r="AD22" s="115"/>
+      <c r="AE22" s="115"/>
+      <c r="AF22" s="115"/>
+      <c r="AG22" s="115"/>
+      <c r="AH22" s="115"/>
+      <c r="AI22" s="116"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
@@ -18471,278 +18471,278 @@
       </c>
     </row>
     <row r="27" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144" t="s">
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="145"/>
-      <c r="R27" s="145"/>
-      <c r="S27" s="145"/>
-      <c r="T27" s="145"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="145"/>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="145"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="145"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="145"/>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="145"/>
-      <c r="AK27" s="145"/>
-      <c r="AL27" s="145"/>
-      <c r="AM27" s="145"/>
-      <c r="AN27" s="145"/>
-      <c r="AO27" s="146"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="121"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="121"/>
+      <c r="AJ27" s="121"/>
+      <c r="AK27" s="121"/>
+      <c r="AL27" s="121"/>
+      <c r="AM27" s="121"/>
+      <c r="AN27" s="121"/>
+      <c r="AO27" s="122"/>
       <c r="AP27" s="5"/>
     </row>
     <row r="28" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="95" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="96"/>
-      <c r="AG28" s="96"/>
-      <c r="AH28" s="96"/>
-      <c r="AI28" s="96"/>
-      <c r="AJ28" s="96"/>
-      <c r="AK28" s="96"/>
-      <c r="AL28" s="96"/>
-      <c r="AM28" s="96"/>
-      <c r="AN28" s="96"/>
-      <c r="AO28" s="97"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="102"/>
+      <c r="AF28" s="102"/>
+      <c r="AG28" s="102"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="102"/>
+      <c r="AJ28" s="102"/>
+      <c r="AK28" s="102"/>
+      <c r="AL28" s="102"/>
+      <c r="AM28" s="102"/>
+      <c r="AN28" s="102"/>
+      <c r="AO28" s="103"/>
       <c r="AP28" s="5"/>
       <c r="BC28" s="50"/>
     </row>
     <row r="29" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="96"/>
-      <c r="AG29" s="96"/>
-      <c r="AH29" s="96"/>
-      <c r="AI29" s="96"/>
-      <c r="AJ29" s="96"/>
-      <c r="AK29" s="96"/>
-      <c r="AL29" s="96"/>
-      <c r="AM29" s="96"/>
-      <c r="AN29" s="96"/>
-      <c r="AO29" s="97"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="102"/>
+      <c r="AF29" s="102"/>
+      <c r="AG29" s="102"/>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="102"/>
+      <c r="AJ29" s="102"/>
+      <c r="AK29" s="102"/>
+      <c r="AL29" s="102"/>
+      <c r="AM29" s="102"/>
+      <c r="AN29" s="102"/>
+      <c r="AO29" s="103"/>
       <c r="AP29" s="5"/>
     </row>
     <row r="30" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="96"/>
-      <c r="AG30" s="96"/>
-      <c r="AH30" s="96"/>
-      <c r="AI30" s="96"/>
-      <c r="AJ30" s="96"/>
-      <c r="AK30" s="96"/>
-      <c r="AL30" s="96"/>
-      <c r="AM30" s="96"/>
-      <c r="AN30" s="96"/>
-      <c r="AO30" s="97"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="102"/>
+      <c r="AF30" s="102"/>
+      <c r="AG30" s="102"/>
+      <c r="AH30" s="102"/>
+      <c r="AI30" s="102"/>
+      <c r="AJ30" s="102"/>
+      <c r="AK30" s="102"/>
+      <c r="AL30" s="102"/>
+      <c r="AM30" s="102"/>
+      <c r="AN30" s="102"/>
+      <c r="AO30" s="103"/>
       <c r="AP30" s="5"/>
     </row>
     <row r="31" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="96"/>
-      <c r="AG31" s="96"/>
-      <c r="AH31" s="96"/>
-      <c r="AI31" s="96"/>
-      <c r="AJ31" s="96"/>
-      <c r="AK31" s="96"/>
-      <c r="AL31" s="96"/>
-      <c r="AM31" s="96"/>
-      <c r="AN31" s="96"/>
-      <c r="AO31" s="97"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="102"/>
+      <c r="AG31" s="102"/>
+      <c r="AH31" s="102"/>
+      <c r="AI31" s="102"/>
+      <c r="AJ31" s="102"/>
+      <c r="AK31" s="102"/>
+      <c r="AL31" s="102"/>
+      <c r="AM31" s="102"/>
+      <c r="AN31" s="102"/>
+      <c r="AO31" s="103"/>
       <c r="AP31" s="5"/>
     </row>
     <row r="32" spans="1:89" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="162" t="s">
+      <c r="B32" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="166"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="166"/>
-      <c r="U32" s="166"/>
-      <c r="V32" s="166"/>
-      <c r="W32" s="166"/>
-      <c r="X32" s="166"/>
-      <c r="Y32" s="166"/>
-      <c r="Z32" s="166"/>
-      <c r="AA32" s="166"/>
-      <c r="AB32" s="166"/>
-      <c r="AC32" s="166"/>
-      <c r="AD32" s="166"/>
-      <c r="AE32" s="166"/>
-      <c r="AF32" s="166"/>
-      <c r="AG32" s="166"/>
-      <c r="AH32" s="166"/>
-      <c r="AI32" s="166"/>
-      <c r="AJ32" s="166"/>
-      <c r="AK32" s="166"/>
-      <c r="AL32" s="166"/>
-      <c r="AM32" s="166"/>
-      <c r="AN32" s="166"/>
-      <c r="AO32" s="167"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="82"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="82"/>
+      <c r="AE32" s="82"/>
+      <c r="AF32" s="82"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="82"/>
+      <c r="AJ32" s="82"/>
+      <c r="AK32" s="82"/>
+      <c r="AL32" s="82"/>
+      <c r="AM32" s="82"/>
+      <c r="AN32" s="82"/>
+      <c r="AO32" s="83"/>
       <c r="AP32" s="5"/>
     </row>
     <row r="33" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18964,24 +18964,24 @@
     </row>
     <row r="38" spans="1:85" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
-      <c r="B38" s="168" t="s">
+      <c r="B38" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="113" t="s">
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="114"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="122" t="s">
+      <c r="I38" s="88"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="123"/>
-      <c r="M38" s="124"/>
+      <c r="L38" s="142"/>
+      <c r="M38" s="143"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -19014,24 +19014,24 @@
     </row>
     <row r="39" spans="1:85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="125">
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="144">
         <v>24</v>
       </c>
-      <c r="I39" s="126"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="89">
+      <c r="I39" s="145"/>
+      <c r="J39" s="146"/>
+      <c r="K39" s="153">
         <v>0</v>
       </c>
-      <c r="L39" s="90"/>
-      <c r="M39" s="91"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="155"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -19065,24 +19065,24 @@
     </row>
     <row r="40" spans="1:85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="104">
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="165">
         <v>0</v>
       </c>
-      <c r="I40" s="105"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="89">
+      <c r="I40" s="166"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="153">
         <v>0</v>
       </c>
-      <c r="L40" s="90"/>
-      <c r="M40" s="91"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="155"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -19116,24 +19116,24 @@
     </row>
     <row r="41" spans="1:85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="104">
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="165">
         <v>0</v>
       </c>
-      <c r="I41" s="105"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="89">
+      <c r="I41" s="166"/>
+      <c r="J41" s="167"/>
+      <c r="K41" s="153">
         <v>0</v>
       </c>
-      <c r="L41" s="90"/>
-      <c r="M41" s="91"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="155"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -19166,24 +19166,24 @@
     </row>
     <row r="42" spans="1:85" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="110">
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="171">
         <v>0</v>
       </c>
-      <c r="I42" s="111"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="89">
+      <c r="I42" s="172"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="153">
         <v>0</v>
       </c>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="155"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -19216,26 +19216,26 @@
     </row>
     <row r="43" spans="1:85" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="113">
+      <c r="C43" s="160"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="87">
         <f>SUM(H39:J42)</f>
         <v>24</v>
       </c>
-      <c r="I43" s="114"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="116">
+      <c r="I43" s="88"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="147">
         <f>SUM(K39:M42)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="117"/>
-      <c r="M43" s="118"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="149"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -19393,2957 +19393,2957 @@
       <c r="AN46" s="5"/>
       <c r="AO46" s="5"/>
       <c r="AP46" s="5"/>
-      <c r="CE46" s="79"/>
-      <c r="CF46" s="79"/>
-      <c r="CG46" s="79"/>
+      <c r="CE46" s="180"/>
+      <c r="CF46" s="180"/>
+      <c r="CG46" s="180"/>
     </row>
     <row r="47" spans="1:85" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="85"/>
-      <c r="D47" s="82" t="s">
+      <c r="C47" s="177"/>
+      <c r="D47" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="85"/>
-      <c r="F47" s="82" t="s">
+      <c r="E47" s="177"/>
+      <c r="F47" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82" t="s">
+      <c r="G47" s="174"/>
+      <c r="H47" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82" t="s">
+      <c r="I47" s="174"/>
+      <c r="J47" s="174"/>
+      <c r="K47" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82" t="s">
+      <c r="L47" s="174"/>
+      <c r="M47" s="174"/>
+      <c r="N47" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82" t="s">
+      <c r="O47" s="174"/>
+      <c r="P47" s="174"/>
+      <c r="Q47" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82" t="s">
+      <c r="R47" s="174"/>
+      <c r="S47" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="T47" s="82"/>
-      <c r="U47" s="82"/>
-      <c r="V47" s="82"/>
-      <c r="W47" s="82"/>
-      <c r="X47" s="82"/>
-      <c r="Y47" s="82" t="s">
+      <c r="T47" s="174"/>
+      <c r="U47" s="174"/>
+      <c r="V47" s="174"/>
+      <c r="W47" s="174"/>
+      <c r="X47" s="174"/>
+      <c r="Y47" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="Z47" s="82"/>
-      <c r="AA47" s="82"/>
-      <c r="AB47" s="82"/>
-      <c r="AC47" s="82"/>
-      <c r="AD47" s="82"/>
-      <c r="AE47" s="82"/>
-      <c r="AF47" s="82"/>
-      <c r="AG47" s="82"/>
-      <c r="AH47" s="82"/>
-      <c r="AI47" s="82"/>
-      <c r="AJ47" s="82"/>
-      <c r="AK47" s="82"/>
-      <c r="AL47" s="82"/>
-      <c r="AM47" s="82"/>
-      <c r="AN47" s="82"/>
-      <c r="AO47" s="82"/>
+      <c r="Z47" s="174"/>
+      <c r="AA47" s="174"/>
+      <c r="AB47" s="174"/>
+      <c r="AC47" s="174"/>
+      <c r="AD47" s="174"/>
+      <c r="AE47" s="174"/>
+      <c r="AF47" s="174"/>
+      <c r="AG47" s="174"/>
+      <c r="AH47" s="174"/>
+      <c r="AI47" s="174"/>
+      <c r="AJ47" s="174"/>
+      <c r="AK47" s="174"/>
+      <c r="AL47" s="174"/>
+      <c r="AM47" s="174"/>
+      <c r="AN47" s="174"/>
+      <c r="AO47" s="174"/>
       <c r="AP47" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AQ47" s="82" t="s">
+      <c r="AQ47" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="AR47" s="82"/>
-      <c r="AS47" s="82"/>
-      <c r="AT47" s="82"/>
-      <c r="AU47" s="82"/>
-      <c r="AV47" s="82"/>
-      <c r="AW47" s="82"/>
-      <c r="AX47" s="82"/>
-      <c r="AY47" s="82" t="s">
+      <c r="AR47" s="174"/>
+      <c r="AS47" s="174"/>
+      <c r="AT47" s="174"/>
+      <c r="AU47" s="174"/>
+      <c r="AV47" s="174"/>
+      <c r="AW47" s="174"/>
+      <c r="AX47" s="174"/>
+      <c r="AY47" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="AZ47" s="82"/>
-      <c r="BA47" s="82"/>
-      <c r="BB47" s="82"/>
-      <c r="BC47" s="82"/>
-      <c r="BD47" s="82"/>
-      <c r="BE47" s="82"/>
-      <c r="BF47" s="82" t="s">
+      <c r="AZ47" s="174"/>
+      <c r="BA47" s="174"/>
+      <c r="BB47" s="174"/>
+      <c r="BC47" s="174"/>
+      <c r="BD47" s="174"/>
+      <c r="BE47" s="174"/>
+      <c r="BF47" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="BG47" s="82"/>
-      <c r="BH47" s="82"/>
-      <c r="BI47" s="82"/>
-      <c r="BJ47" s="82"/>
-      <c r="BK47" s="82"/>
-      <c r="BL47" s="82"/>
-      <c r="BM47" s="82"/>
-      <c r="BN47" s="82"/>
-      <c r="BO47" s="82"/>
-      <c r="BP47" s="82" t="s">
+      <c r="BG47" s="174"/>
+      <c r="BH47" s="174"/>
+      <c r="BI47" s="174"/>
+      <c r="BJ47" s="174"/>
+      <c r="BK47" s="174"/>
+      <c r="BL47" s="174"/>
+      <c r="BM47" s="174"/>
+      <c r="BN47" s="174"/>
+      <c r="BO47" s="174"/>
+      <c r="BP47" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="BQ47" s="82"/>
-      <c r="BR47" s="82"/>
-      <c r="BS47" s="82"/>
-      <c r="BT47" s="82"/>
-      <c r="BU47" s="82"/>
-      <c r="BV47" s="82"/>
-      <c r="BW47" s="82"/>
-      <c r="BX47" s="82"/>
-      <c r="BY47" s="82"/>
-      <c r="BZ47" s="82"/>
-      <c r="CA47" s="82"/>
-      <c r="CB47" s="82"/>
-      <c r="CC47" s="82"/>
-      <c r="CD47" s="82"/>
-      <c r="CE47" s="82" t="s">
+      <c r="BQ47" s="174"/>
+      <c r="BR47" s="174"/>
+      <c r="BS47" s="174"/>
+      <c r="BT47" s="174"/>
+      <c r="BU47" s="174"/>
+      <c r="BV47" s="174"/>
+      <c r="BW47" s="174"/>
+      <c r="BX47" s="174"/>
+      <c r="BY47" s="174"/>
+      <c r="BZ47" s="174"/>
+      <c r="CA47" s="174"/>
+      <c r="CB47" s="174"/>
+      <c r="CC47" s="174"/>
+      <c r="CD47" s="174"/>
+      <c r="CE47" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="CF47" s="82"/>
-      <c r="CG47" s="83"/>
+      <c r="CF47" s="174"/>
+      <c r="CG47" s="175"/>
     </row>
     <row r="48" spans="1:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="67" t="s">
+      <c r="C48" s="55"/>
+      <c r="D48" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="66" t="s">
+      <c r="E48" s="55"/>
+      <c r="F48" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="69" t="s">
+      <c r="G48" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="66" t="s">
+      <c r="H48" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="58">
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="55">
         <v>1</v>
       </c>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58">
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55">
         <v>1</v>
       </c>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58">
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55">
         <v>3</v>
       </c>
-      <c r="R48" s="58"/>
-      <c r="S48" s="70" t="s">
+      <c r="R48" s="55"/>
+      <c r="S48" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="73" t="s">
+      <c r="T48" s="57"/>
+      <c r="U48" s="57"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="57"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="Z48" s="74"/>
-      <c r="AA48" s="74"/>
-      <c r="AB48" s="74"/>
-      <c r="AC48" s="74"/>
-      <c r="AD48" s="74"/>
-      <c r="AE48" s="74"/>
-      <c r="AF48" s="74"/>
-      <c r="AG48" s="74"/>
-      <c r="AH48" s="74"/>
-      <c r="AI48" s="74"/>
-      <c r="AJ48" s="74"/>
-      <c r="AK48" s="74"/>
-      <c r="AL48" s="74"/>
-      <c r="AM48" s="74"/>
-      <c r="AN48" s="74"/>
-      <c r="AO48" s="74"/>
+      <c r="Z48" s="60"/>
+      <c r="AA48" s="60"/>
+      <c r="AB48" s="60"/>
+      <c r="AC48" s="60"/>
+      <c r="AD48" s="60"/>
+      <c r="AE48" s="60"/>
+      <c r="AF48" s="60"/>
+      <c r="AG48" s="60"/>
+      <c r="AH48" s="60"/>
+      <c r="AI48" s="60"/>
+      <c r="AJ48" s="60"/>
+      <c r="AK48" s="60"/>
+      <c r="AL48" s="60"/>
+      <c r="AM48" s="60"/>
+      <c r="AN48" s="60"/>
+      <c r="AO48" s="60"/>
       <c r="AP48" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ48" s="59" t="s">
+      <c r="AQ48" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR48" s="60"/>
-      <c r="AS48" s="60"/>
-      <c r="AT48" s="60"/>
-      <c r="AU48" s="60"/>
-      <c r="AV48" s="60"/>
-      <c r="AW48" s="60"/>
-      <c r="AX48" s="60"/>
-      <c r="AY48" s="61" t="s">
+      <c r="AR48" s="65"/>
+      <c r="AS48" s="65"/>
+      <c r="AT48" s="65"/>
+      <c r="AU48" s="65"/>
+      <c r="AV48" s="65"/>
+      <c r="AW48" s="65"/>
+      <c r="AX48" s="65"/>
+      <c r="AY48" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ48" s="62"/>
-      <c r="BA48" s="62"/>
-      <c r="BB48" s="62"/>
-      <c r="BC48" s="62"/>
-      <c r="BD48" s="62"/>
-      <c r="BE48" s="62"/>
-      <c r="BF48" s="73" t="s">
+      <c r="AZ48" s="67"/>
+      <c r="BA48" s="67"/>
+      <c r="BB48" s="67"/>
+      <c r="BC48" s="67"/>
+      <c r="BD48" s="67"/>
+      <c r="BE48" s="67"/>
+      <c r="BF48" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="BG48" s="62"/>
-      <c r="BH48" s="62"/>
-      <c r="BI48" s="62"/>
-      <c r="BJ48" s="62"/>
-      <c r="BK48" s="62"/>
-      <c r="BL48" s="62"/>
-      <c r="BM48" s="62"/>
-      <c r="BN48" s="62"/>
-      <c r="BO48" s="62"/>
-      <c r="BP48" s="73" t="s">
+      <c r="BG48" s="67"/>
+      <c r="BH48" s="67"/>
+      <c r="BI48" s="67"/>
+      <c r="BJ48" s="67"/>
+      <c r="BK48" s="67"/>
+      <c r="BL48" s="67"/>
+      <c r="BM48" s="67"/>
+      <c r="BN48" s="67"/>
+      <c r="BO48" s="67"/>
+      <c r="BP48" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="BQ48" s="62"/>
-      <c r="BR48" s="62"/>
-      <c r="BS48" s="62"/>
-      <c r="BT48" s="62"/>
-      <c r="BU48" s="62"/>
-      <c r="BV48" s="62"/>
-      <c r="BW48" s="62"/>
-      <c r="BX48" s="62"/>
-      <c r="BY48" s="62"/>
-      <c r="BZ48" s="62"/>
-      <c r="CA48" s="62"/>
-      <c r="CB48" s="62"/>
-      <c r="CC48" s="62"/>
-      <c r="CD48" s="62"/>
-      <c r="CE48" s="66" t="s">
+      <c r="BQ48" s="67"/>
+      <c r="BR48" s="67"/>
+      <c r="BS48" s="67"/>
+      <c r="BT48" s="67"/>
+      <c r="BU48" s="67"/>
+      <c r="BV48" s="67"/>
+      <c r="BW48" s="67"/>
+      <c r="BX48" s="67"/>
+      <c r="BY48" s="67"/>
+      <c r="BZ48" s="67"/>
+      <c r="CA48" s="67"/>
+      <c r="CB48" s="67"/>
+      <c r="CC48" s="67"/>
+      <c r="CD48" s="67"/>
+      <c r="CE48" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF48" s="67"/>
-      <c r="CG48" s="68"/>
+      <c r="CF48" s="68"/>
+      <c r="CG48" s="69"/>
     </row>
     <row r="49" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="67" t="s">
+      <c r="C49" s="55"/>
+      <c r="D49" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="66" t="s">
+      <c r="E49" s="55"/>
+      <c r="F49" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="G49" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="66" t="s">
+      <c r="H49" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="58">
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="55">
         <v>1</v>
       </c>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58">
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55">
         <v>1</v>
       </c>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58">
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55">
         <v>3</v>
       </c>
-      <c r="R49" s="58"/>
-      <c r="S49" s="70" t="s">
+      <c r="R49" s="55"/>
+      <c r="S49" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="73" t="s">
+      <c r="T49" s="57"/>
+      <c r="U49" s="57"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="57"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="Z49" s="74"/>
-      <c r="AA49" s="74"/>
-      <c r="AB49" s="74"/>
-      <c r="AC49" s="74"/>
-      <c r="AD49" s="74"/>
-      <c r="AE49" s="74"/>
-      <c r="AF49" s="74"/>
-      <c r="AG49" s="74"/>
-      <c r="AH49" s="74"/>
-      <c r="AI49" s="74"/>
-      <c r="AJ49" s="74"/>
-      <c r="AK49" s="74"/>
-      <c r="AL49" s="74"/>
-      <c r="AM49" s="74"/>
-      <c r="AN49" s="74"/>
-      <c r="AO49" s="74"/>
+      <c r="Z49" s="60"/>
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="60"/>
+      <c r="AC49" s="60"/>
+      <c r="AD49" s="60"/>
+      <c r="AE49" s="60"/>
+      <c r="AF49" s="60"/>
+      <c r="AG49" s="60"/>
+      <c r="AH49" s="60"/>
+      <c r="AI49" s="60"/>
+      <c r="AJ49" s="60"/>
+      <c r="AK49" s="60"/>
+      <c r="AL49" s="60"/>
+      <c r="AM49" s="60"/>
+      <c r="AN49" s="60"/>
+      <c r="AO49" s="60"/>
       <c r="AP49" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ49" s="59" t="s">
+      <c r="AQ49" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR49" s="60"/>
-      <c r="AS49" s="60"/>
-      <c r="AT49" s="60"/>
-      <c r="AU49" s="60"/>
-      <c r="AV49" s="60"/>
-      <c r="AW49" s="60"/>
-      <c r="AX49" s="60"/>
-      <c r="AY49" s="61" t="s">
+      <c r="AR49" s="65"/>
+      <c r="AS49" s="65"/>
+      <c r="AT49" s="65"/>
+      <c r="AU49" s="65"/>
+      <c r="AV49" s="65"/>
+      <c r="AW49" s="65"/>
+      <c r="AX49" s="65"/>
+      <c r="AY49" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ49" s="62"/>
-      <c r="BA49" s="62"/>
-      <c r="BB49" s="62"/>
-      <c r="BC49" s="62"/>
-      <c r="BD49" s="62"/>
-      <c r="BE49" s="62"/>
-      <c r="BF49" s="73" t="s">
+      <c r="AZ49" s="67"/>
+      <c r="BA49" s="67"/>
+      <c r="BB49" s="67"/>
+      <c r="BC49" s="67"/>
+      <c r="BD49" s="67"/>
+      <c r="BE49" s="67"/>
+      <c r="BF49" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="BG49" s="62"/>
-      <c r="BH49" s="62"/>
-      <c r="BI49" s="62"/>
-      <c r="BJ49" s="62"/>
-      <c r="BK49" s="62"/>
-      <c r="BL49" s="62"/>
-      <c r="BM49" s="62"/>
-      <c r="BN49" s="62"/>
-      <c r="BO49" s="62"/>
-      <c r="BP49" s="73" t="s">
+      <c r="BG49" s="67"/>
+      <c r="BH49" s="67"/>
+      <c r="BI49" s="67"/>
+      <c r="BJ49" s="67"/>
+      <c r="BK49" s="67"/>
+      <c r="BL49" s="67"/>
+      <c r="BM49" s="67"/>
+      <c r="BN49" s="67"/>
+      <c r="BO49" s="67"/>
+      <c r="BP49" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="BQ49" s="62"/>
-      <c r="BR49" s="62"/>
-      <c r="BS49" s="62"/>
-      <c r="BT49" s="62"/>
-      <c r="BU49" s="62"/>
-      <c r="BV49" s="62"/>
-      <c r="BW49" s="62"/>
-      <c r="BX49" s="62"/>
-      <c r="BY49" s="62"/>
-      <c r="BZ49" s="62"/>
-      <c r="CA49" s="62"/>
-      <c r="CB49" s="62"/>
-      <c r="CC49" s="62"/>
-      <c r="CD49" s="62"/>
-      <c r="CE49" s="66" t="s">
+      <c r="BQ49" s="67"/>
+      <c r="BR49" s="67"/>
+      <c r="BS49" s="67"/>
+      <c r="BT49" s="67"/>
+      <c r="BU49" s="67"/>
+      <c r="BV49" s="67"/>
+      <c r="BW49" s="67"/>
+      <c r="BX49" s="67"/>
+      <c r="BY49" s="67"/>
+      <c r="BZ49" s="67"/>
+      <c r="CA49" s="67"/>
+      <c r="CB49" s="67"/>
+      <c r="CC49" s="67"/>
+      <c r="CD49" s="67"/>
+      <c r="CE49" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF49" s="67"/>
-      <c r="CG49" s="68"/>
+      <c r="CF49" s="68"/>
+      <c r="CG49" s="69"/>
     </row>
     <row r="50" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="67" t="s">
+      <c r="C50" s="55"/>
+      <c r="D50" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="66" t="s">
+      <c r="E50" s="55"/>
+      <c r="F50" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G50" s="69" t="s">
+      <c r="G50" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H50" s="66" t="s">
+      <c r="H50" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="58">
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="55">
         <v>1</v>
       </c>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58">
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55">
         <v>1</v>
       </c>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58">
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55">
         <v>3</v>
       </c>
-      <c r="R50" s="58"/>
-      <c r="S50" s="70" t="s">
+      <c r="R50" s="55"/>
+      <c r="S50" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="T50" s="71"/>
-      <c r="U50" s="71"/>
-      <c r="V50" s="71"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="72"/>
-      <c r="Y50" s="73" t="s">
+      <c r="T50" s="57"/>
+      <c r="U50" s="57"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="58"/>
+      <c r="Y50" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="Z50" s="74"/>
-      <c r="AA50" s="74"/>
-      <c r="AB50" s="74"/>
-      <c r="AC50" s="74"/>
-      <c r="AD50" s="74"/>
-      <c r="AE50" s="74"/>
-      <c r="AF50" s="74"/>
-      <c r="AG50" s="74"/>
-      <c r="AH50" s="74"/>
-      <c r="AI50" s="74"/>
-      <c r="AJ50" s="74"/>
-      <c r="AK50" s="74"/>
-      <c r="AL50" s="74"/>
-      <c r="AM50" s="74"/>
-      <c r="AN50" s="74"/>
-      <c r="AO50" s="74"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="60"/>
+      <c r="AF50" s="60"/>
+      <c r="AG50" s="60"/>
+      <c r="AH50" s="60"/>
+      <c r="AI50" s="60"/>
+      <c r="AJ50" s="60"/>
+      <c r="AK50" s="60"/>
+      <c r="AL50" s="60"/>
+      <c r="AM50" s="60"/>
+      <c r="AN50" s="60"/>
+      <c r="AO50" s="60"/>
       <c r="AP50" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ50" s="59" t="s">
+      <c r="AQ50" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR50" s="60"/>
-      <c r="AS50" s="60"/>
-      <c r="AT50" s="60"/>
-      <c r="AU50" s="60"/>
-      <c r="AV50" s="60"/>
-      <c r="AW50" s="60"/>
-      <c r="AX50" s="60"/>
-      <c r="AY50" s="61" t="s">
+      <c r="AR50" s="65"/>
+      <c r="AS50" s="65"/>
+      <c r="AT50" s="65"/>
+      <c r="AU50" s="65"/>
+      <c r="AV50" s="65"/>
+      <c r="AW50" s="65"/>
+      <c r="AX50" s="65"/>
+      <c r="AY50" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ50" s="62"/>
-      <c r="BA50" s="62"/>
-      <c r="BB50" s="62"/>
-      <c r="BC50" s="62"/>
-      <c r="BD50" s="62"/>
-      <c r="BE50" s="62"/>
-      <c r="BF50" s="73" t="s">
+      <c r="AZ50" s="67"/>
+      <c r="BA50" s="67"/>
+      <c r="BB50" s="67"/>
+      <c r="BC50" s="67"/>
+      <c r="BD50" s="67"/>
+      <c r="BE50" s="67"/>
+      <c r="BF50" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="BG50" s="62"/>
-      <c r="BH50" s="62"/>
-      <c r="BI50" s="62"/>
-      <c r="BJ50" s="62"/>
-      <c r="BK50" s="62"/>
-      <c r="BL50" s="62"/>
-      <c r="BM50" s="62"/>
-      <c r="BN50" s="62"/>
-      <c r="BO50" s="62"/>
-      <c r="BP50" s="73" t="s">
+      <c r="BG50" s="67"/>
+      <c r="BH50" s="67"/>
+      <c r="BI50" s="67"/>
+      <c r="BJ50" s="67"/>
+      <c r="BK50" s="67"/>
+      <c r="BL50" s="67"/>
+      <c r="BM50" s="67"/>
+      <c r="BN50" s="67"/>
+      <c r="BO50" s="67"/>
+      <c r="BP50" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="BQ50" s="62"/>
-      <c r="BR50" s="62"/>
-      <c r="BS50" s="62"/>
-      <c r="BT50" s="62"/>
-      <c r="BU50" s="62"/>
-      <c r="BV50" s="62"/>
-      <c r="BW50" s="62"/>
-      <c r="BX50" s="62"/>
-      <c r="BY50" s="62"/>
-      <c r="BZ50" s="62"/>
-      <c r="CA50" s="62"/>
-      <c r="CB50" s="62"/>
-      <c r="CC50" s="62"/>
-      <c r="CD50" s="62"/>
-      <c r="CE50" s="66" t="s">
+      <c r="BQ50" s="67"/>
+      <c r="BR50" s="67"/>
+      <c r="BS50" s="67"/>
+      <c r="BT50" s="67"/>
+      <c r="BU50" s="67"/>
+      <c r="BV50" s="67"/>
+      <c r="BW50" s="67"/>
+      <c r="BX50" s="67"/>
+      <c r="BY50" s="67"/>
+      <c r="BZ50" s="67"/>
+      <c r="CA50" s="67"/>
+      <c r="CB50" s="67"/>
+      <c r="CC50" s="67"/>
+      <c r="CD50" s="67"/>
+      <c r="CE50" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF50" s="67"/>
-      <c r="CG50" s="68"/>
+      <c r="CF50" s="68"/>
+      <c r="CG50" s="69"/>
     </row>
     <row r="51" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="67" t="s">
+      <c r="C51" s="55"/>
+      <c r="D51" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="66" t="s">
+      <c r="E51" s="55"/>
+      <c r="F51" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="69" t="s">
+      <c r="G51" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="66" t="s">
+      <c r="H51" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="58">
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="55">
         <v>1</v>
       </c>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58">
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55">
         <v>1</v>
       </c>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58">
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55">
         <v>3</v>
       </c>
-      <c r="R51" s="58"/>
-      <c r="S51" s="70" t="s">
+      <c r="R51" s="55"/>
+      <c r="S51" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="T51" s="71"/>
-      <c r="U51" s="71"/>
-      <c r="V51" s="71"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="72"/>
-      <c r="Y51" s="73" t="s">
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="58"/>
+      <c r="Y51" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="Z51" s="74"/>
-      <c r="AA51" s="74"/>
-      <c r="AB51" s="74"/>
-      <c r="AC51" s="74"/>
-      <c r="AD51" s="74"/>
-      <c r="AE51" s="74"/>
-      <c r="AF51" s="74"/>
-      <c r="AG51" s="74"/>
-      <c r="AH51" s="74"/>
-      <c r="AI51" s="74"/>
-      <c r="AJ51" s="74"/>
-      <c r="AK51" s="74"/>
-      <c r="AL51" s="74"/>
-      <c r="AM51" s="74"/>
-      <c r="AN51" s="74"/>
-      <c r="AO51" s="74"/>
+      <c r="Z51" s="60"/>
+      <c r="AA51" s="60"/>
+      <c r="AB51" s="60"/>
+      <c r="AC51" s="60"/>
+      <c r="AD51" s="60"/>
+      <c r="AE51" s="60"/>
+      <c r="AF51" s="60"/>
+      <c r="AG51" s="60"/>
+      <c r="AH51" s="60"/>
+      <c r="AI51" s="60"/>
+      <c r="AJ51" s="60"/>
+      <c r="AK51" s="60"/>
+      <c r="AL51" s="60"/>
+      <c r="AM51" s="60"/>
+      <c r="AN51" s="60"/>
+      <c r="AO51" s="60"/>
       <c r="AP51" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ51" s="59" t="s">
+      <c r="AQ51" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR51" s="60"/>
-      <c r="AS51" s="60"/>
-      <c r="AT51" s="60"/>
-      <c r="AU51" s="60"/>
-      <c r="AV51" s="60"/>
-      <c r="AW51" s="60"/>
-      <c r="AX51" s="60"/>
-      <c r="AY51" s="61" t="s">
+      <c r="AR51" s="65"/>
+      <c r="AS51" s="65"/>
+      <c r="AT51" s="65"/>
+      <c r="AU51" s="65"/>
+      <c r="AV51" s="65"/>
+      <c r="AW51" s="65"/>
+      <c r="AX51" s="65"/>
+      <c r="AY51" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ51" s="62"/>
-      <c r="BA51" s="62"/>
-      <c r="BB51" s="62"/>
-      <c r="BC51" s="62"/>
-      <c r="BD51" s="62"/>
-      <c r="BE51" s="62"/>
-      <c r="BF51" s="73" t="s">
+      <c r="AZ51" s="67"/>
+      <c r="BA51" s="67"/>
+      <c r="BB51" s="67"/>
+      <c r="BC51" s="67"/>
+      <c r="BD51" s="67"/>
+      <c r="BE51" s="67"/>
+      <c r="BF51" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="BG51" s="62"/>
-      <c r="BH51" s="62"/>
-      <c r="BI51" s="62"/>
-      <c r="BJ51" s="62"/>
-      <c r="BK51" s="62"/>
-      <c r="BL51" s="62"/>
-      <c r="BM51" s="62"/>
-      <c r="BN51" s="62"/>
-      <c r="BO51" s="62"/>
-      <c r="BP51" s="73" t="s">
+      <c r="BG51" s="67"/>
+      <c r="BH51" s="67"/>
+      <c r="BI51" s="67"/>
+      <c r="BJ51" s="67"/>
+      <c r="BK51" s="67"/>
+      <c r="BL51" s="67"/>
+      <c r="BM51" s="67"/>
+      <c r="BN51" s="67"/>
+      <c r="BO51" s="67"/>
+      <c r="BP51" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="BQ51" s="62"/>
-      <c r="BR51" s="62"/>
-      <c r="BS51" s="62"/>
-      <c r="BT51" s="62"/>
-      <c r="BU51" s="62"/>
-      <c r="BV51" s="62"/>
-      <c r="BW51" s="62"/>
-      <c r="BX51" s="62"/>
-      <c r="BY51" s="62"/>
-      <c r="BZ51" s="62"/>
-      <c r="CA51" s="62"/>
-      <c r="CB51" s="62"/>
-      <c r="CC51" s="62"/>
-      <c r="CD51" s="62"/>
-      <c r="CE51" s="66" t="s">
+      <c r="BQ51" s="67"/>
+      <c r="BR51" s="67"/>
+      <c r="BS51" s="67"/>
+      <c r="BT51" s="67"/>
+      <c r="BU51" s="67"/>
+      <c r="BV51" s="67"/>
+      <c r="BW51" s="67"/>
+      <c r="BX51" s="67"/>
+      <c r="BY51" s="67"/>
+      <c r="BZ51" s="67"/>
+      <c r="CA51" s="67"/>
+      <c r="CB51" s="67"/>
+      <c r="CC51" s="67"/>
+      <c r="CD51" s="67"/>
+      <c r="CE51" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF51" s="67"/>
-      <c r="CG51" s="68"/>
+      <c r="CF51" s="68"/>
+      <c r="CG51" s="69"/>
     </row>
     <row r="52" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="67" t="s">
+      <c r="C52" s="55"/>
+      <c r="D52" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="66" t="s">
+      <c r="E52" s="55"/>
+      <c r="F52" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="69" t="s">
+      <c r="G52" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="66" t="s">
+      <c r="H52" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="58">
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="55">
         <v>1</v>
       </c>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58">
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55">
         <v>1</v>
       </c>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58">
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55">
         <v>3</v>
       </c>
-      <c r="R52" s="58"/>
-      <c r="S52" s="70" t="s">
+      <c r="R52" s="55"/>
+      <c r="S52" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="T52" s="71"/>
-      <c r="U52" s="71"/>
-      <c r="V52" s="71"/>
-      <c r="W52" s="71"/>
-      <c r="X52" s="72"/>
-      <c r="Y52" s="73" t="s">
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="Z52" s="74"/>
-      <c r="AA52" s="74"/>
-      <c r="AB52" s="74"/>
-      <c r="AC52" s="74"/>
-      <c r="AD52" s="74"/>
-      <c r="AE52" s="74"/>
-      <c r="AF52" s="74"/>
-      <c r="AG52" s="74"/>
-      <c r="AH52" s="74"/>
-      <c r="AI52" s="74"/>
-      <c r="AJ52" s="74"/>
-      <c r="AK52" s="74"/>
-      <c r="AL52" s="74"/>
-      <c r="AM52" s="74"/>
-      <c r="AN52" s="74"/>
-      <c r="AO52" s="74"/>
+      <c r="Z52" s="60"/>
+      <c r="AA52" s="60"/>
+      <c r="AB52" s="60"/>
+      <c r="AC52" s="60"/>
+      <c r="AD52" s="60"/>
+      <c r="AE52" s="60"/>
+      <c r="AF52" s="60"/>
+      <c r="AG52" s="60"/>
+      <c r="AH52" s="60"/>
+      <c r="AI52" s="60"/>
+      <c r="AJ52" s="60"/>
+      <c r="AK52" s="60"/>
+      <c r="AL52" s="60"/>
+      <c r="AM52" s="60"/>
+      <c r="AN52" s="60"/>
+      <c r="AO52" s="60"/>
       <c r="AP52" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ52" s="59" t="s">
+      <c r="AQ52" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR52" s="60"/>
-      <c r="AS52" s="60"/>
-      <c r="AT52" s="60"/>
-      <c r="AU52" s="60"/>
-      <c r="AV52" s="60"/>
-      <c r="AW52" s="60"/>
-      <c r="AX52" s="60"/>
-      <c r="AY52" s="61" t="s">
+      <c r="AR52" s="65"/>
+      <c r="AS52" s="65"/>
+      <c r="AT52" s="65"/>
+      <c r="AU52" s="65"/>
+      <c r="AV52" s="65"/>
+      <c r="AW52" s="65"/>
+      <c r="AX52" s="65"/>
+      <c r="AY52" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ52" s="62"/>
-      <c r="BA52" s="62"/>
-      <c r="BB52" s="62"/>
-      <c r="BC52" s="62"/>
-      <c r="BD52" s="62"/>
-      <c r="BE52" s="62"/>
-      <c r="BF52" s="73" t="s">
+      <c r="AZ52" s="67"/>
+      <c r="BA52" s="67"/>
+      <c r="BB52" s="67"/>
+      <c r="BC52" s="67"/>
+      <c r="BD52" s="67"/>
+      <c r="BE52" s="67"/>
+      <c r="BF52" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="BG52" s="62"/>
-      <c r="BH52" s="62"/>
-      <c r="BI52" s="62"/>
-      <c r="BJ52" s="62"/>
-      <c r="BK52" s="62"/>
-      <c r="BL52" s="62"/>
-      <c r="BM52" s="62"/>
-      <c r="BN52" s="62"/>
-      <c r="BO52" s="62"/>
-      <c r="BP52" s="73" t="s">
+      <c r="BG52" s="67"/>
+      <c r="BH52" s="67"/>
+      <c r="BI52" s="67"/>
+      <c r="BJ52" s="67"/>
+      <c r="BK52" s="67"/>
+      <c r="BL52" s="67"/>
+      <c r="BM52" s="67"/>
+      <c r="BN52" s="67"/>
+      <c r="BO52" s="67"/>
+      <c r="BP52" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="BQ52" s="62"/>
-      <c r="BR52" s="62"/>
-      <c r="BS52" s="62"/>
-      <c r="BT52" s="62"/>
-      <c r="BU52" s="62"/>
-      <c r="BV52" s="62"/>
-      <c r="BW52" s="62"/>
-      <c r="BX52" s="62"/>
-      <c r="BY52" s="62"/>
-      <c r="BZ52" s="62"/>
-      <c r="CA52" s="62"/>
-      <c r="CB52" s="62"/>
-      <c r="CC52" s="62"/>
-      <c r="CD52" s="62"/>
-      <c r="CE52" s="66" t="s">
+      <c r="BQ52" s="67"/>
+      <c r="BR52" s="67"/>
+      <c r="BS52" s="67"/>
+      <c r="BT52" s="67"/>
+      <c r="BU52" s="67"/>
+      <c r="BV52" s="67"/>
+      <c r="BW52" s="67"/>
+      <c r="BX52" s="67"/>
+      <c r="BY52" s="67"/>
+      <c r="BZ52" s="67"/>
+      <c r="CA52" s="67"/>
+      <c r="CB52" s="67"/>
+      <c r="CC52" s="67"/>
+      <c r="CD52" s="67"/>
+      <c r="CE52" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF52" s="67"/>
-      <c r="CG52" s="68"/>
+      <c r="CF52" s="68"/>
+      <c r="CG52" s="69"/>
     </row>
     <row r="53" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="67" t="s">
+      <c r="C53" s="55"/>
+      <c r="D53" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="66" t="s">
+      <c r="E53" s="55"/>
+      <c r="F53" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G53" s="69" t="s">
+      <c r="G53" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="66" t="s">
+      <c r="H53" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="58">
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="55">
         <v>1</v>
       </c>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58">
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55">
         <v>1</v>
       </c>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58">
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55">
         <v>3</v>
       </c>
-      <c r="R53" s="58"/>
-      <c r="S53" s="70" t="s">
+      <c r="R53" s="55"/>
+      <c r="S53" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="72"/>
-      <c r="Y53" s="73" t="s">
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="58"/>
+      <c r="Y53" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="Z53" s="74"/>
-      <c r="AA53" s="74"/>
-      <c r="AB53" s="74"/>
-      <c r="AC53" s="74"/>
-      <c r="AD53" s="74"/>
-      <c r="AE53" s="74"/>
-      <c r="AF53" s="74"/>
-      <c r="AG53" s="74"/>
-      <c r="AH53" s="74"/>
-      <c r="AI53" s="74"/>
-      <c r="AJ53" s="74"/>
-      <c r="AK53" s="74"/>
-      <c r="AL53" s="74"/>
-      <c r="AM53" s="74"/>
-      <c r="AN53" s="74"/>
-      <c r="AO53" s="74"/>
+      <c r="Z53" s="60"/>
+      <c r="AA53" s="60"/>
+      <c r="AB53" s="60"/>
+      <c r="AC53" s="60"/>
+      <c r="AD53" s="60"/>
+      <c r="AE53" s="60"/>
+      <c r="AF53" s="60"/>
+      <c r="AG53" s="60"/>
+      <c r="AH53" s="60"/>
+      <c r="AI53" s="60"/>
+      <c r="AJ53" s="60"/>
+      <c r="AK53" s="60"/>
+      <c r="AL53" s="60"/>
+      <c r="AM53" s="60"/>
+      <c r="AN53" s="60"/>
+      <c r="AO53" s="60"/>
       <c r="AP53" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ53" s="59" t="s">
+      <c r="AQ53" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR53" s="60"/>
-      <c r="AS53" s="60"/>
-      <c r="AT53" s="60"/>
-      <c r="AU53" s="60"/>
-      <c r="AV53" s="60"/>
-      <c r="AW53" s="60"/>
-      <c r="AX53" s="60"/>
-      <c r="AY53" s="61" t="s">
+      <c r="AR53" s="65"/>
+      <c r="AS53" s="65"/>
+      <c r="AT53" s="65"/>
+      <c r="AU53" s="65"/>
+      <c r="AV53" s="65"/>
+      <c r="AW53" s="65"/>
+      <c r="AX53" s="65"/>
+      <c r="AY53" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ53" s="62"/>
-      <c r="BA53" s="62"/>
-      <c r="BB53" s="62"/>
-      <c r="BC53" s="62"/>
-      <c r="BD53" s="62"/>
-      <c r="BE53" s="62"/>
-      <c r="BF53" s="73" t="s">
+      <c r="AZ53" s="67"/>
+      <c r="BA53" s="67"/>
+      <c r="BB53" s="67"/>
+      <c r="BC53" s="67"/>
+      <c r="BD53" s="67"/>
+      <c r="BE53" s="67"/>
+      <c r="BF53" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="BG53" s="62"/>
-      <c r="BH53" s="62"/>
-      <c r="BI53" s="62"/>
-      <c r="BJ53" s="62"/>
-      <c r="BK53" s="62"/>
-      <c r="BL53" s="62"/>
-      <c r="BM53" s="62"/>
-      <c r="BN53" s="62"/>
-      <c r="BO53" s="62"/>
-      <c r="BP53" s="73" t="s">
+      <c r="BG53" s="67"/>
+      <c r="BH53" s="67"/>
+      <c r="BI53" s="67"/>
+      <c r="BJ53" s="67"/>
+      <c r="BK53" s="67"/>
+      <c r="BL53" s="67"/>
+      <c r="BM53" s="67"/>
+      <c r="BN53" s="67"/>
+      <c r="BO53" s="67"/>
+      <c r="BP53" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="BQ53" s="62"/>
-      <c r="BR53" s="62"/>
-      <c r="BS53" s="62"/>
-      <c r="BT53" s="62"/>
-      <c r="BU53" s="62"/>
-      <c r="BV53" s="62"/>
-      <c r="BW53" s="62"/>
-      <c r="BX53" s="62"/>
-      <c r="BY53" s="62"/>
-      <c r="BZ53" s="62"/>
-      <c r="CA53" s="62"/>
-      <c r="CB53" s="62"/>
-      <c r="CC53" s="62"/>
-      <c r="CD53" s="62"/>
-      <c r="CE53" s="66" t="s">
+      <c r="BQ53" s="67"/>
+      <c r="BR53" s="67"/>
+      <c r="BS53" s="67"/>
+      <c r="BT53" s="67"/>
+      <c r="BU53" s="67"/>
+      <c r="BV53" s="67"/>
+      <c r="BW53" s="67"/>
+      <c r="BX53" s="67"/>
+      <c r="BY53" s="67"/>
+      <c r="BZ53" s="67"/>
+      <c r="CA53" s="67"/>
+      <c r="CB53" s="67"/>
+      <c r="CC53" s="67"/>
+      <c r="CD53" s="67"/>
+      <c r="CE53" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF53" s="67"/>
-      <c r="CG53" s="68"/>
+      <c r="CF53" s="68"/>
+      <c r="CG53" s="69"/>
     </row>
     <row r="54" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="67" t="s">
+      <c r="C54" s="55"/>
+      <c r="D54" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="66" t="s">
+      <c r="E54" s="55"/>
+      <c r="F54" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="69" t="s">
+      <c r="G54" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="66" t="s">
+      <c r="H54" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="58">
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="55">
         <v>1</v>
       </c>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58">
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55">
         <v>1</v>
       </c>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58">
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55">
         <v>3</v>
       </c>
-      <c r="R54" s="58"/>
-      <c r="S54" s="70" t="s">
+      <c r="R54" s="55"/>
+      <c r="S54" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="T54" s="71"/>
-      <c r="U54" s="71"/>
-      <c r="V54" s="71"/>
-      <c r="W54" s="71"/>
-      <c r="X54" s="72"/>
-      <c r="Y54" s="73" t="s">
+      <c r="T54" s="57"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="58"/>
+      <c r="Y54" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="Z54" s="74"/>
-      <c r="AA54" s="74"/>
-      <c r="AB54" s="74"/>
-      <c r="AC54" s="74"/>
-      <c r="AD54" s="74"/>
-      <c r="AE54" s="74"/>
-      <c r="AF54" s="74"/>
-      <c r="AG54" s="74"/>
-      <c r="AH54" s="74"/>
-      <c r="AI54" s="74"/>
-      <c r="AJ54" s="74"/>
-      <c r="AK54" s="74"/>
-      <c r="AL54" s="74"/>
-      <c r="AM54" s="74"/>
-      <c r="AN54" s="74"/>
-      <c r="AO54" s="74"/>
+      <c r="Z54" s="60"/>
+      <c r="AA54" s="60"/>
+      <c r="AB54" s="60"/>
+      <c r="AC54" s="60"/>
+      <c r="AD54" s="60"/>
+      <c r="AE54" s="60"/>
+      <c r="AF54" s="60"/>
+      <c r="AG54" s="60"/>
+      <c r="AH54" s="60"/>
+      <c r="AI54" s="60"/>
+      <c r="AJ54" s="60"/>
+      <c r="AK54" s="60"/>
+      <c r="AL54" s="60"/>
+      <c r="AM54" s="60"/>
+      <c r="AN54" s="60"/>
+      <c r="AO54" s="60"/>
       <c r="AP54" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ54" s="59" t="s">
+      <c r="AQ54" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR54" s="60"/>
-      <c r="AS54" s="60"/>
-      <c r="AT54" s="60"/>
-      <c r="AU54" s="60"/>
-      <c r="AV54" s="60"/>
-      <c r="AW54" s="60"/>
-      <c r="AX54" s="60"/>
-      <c r="AY54" s="61" t="s">
+      <c r="AR54" s="65"/>
+      <c r="AS54" s="65"/>
+      <c r="AT54" s="65"/>
+      <c r="AU54" s="65"/>
+      <c r="AV54" s="65"/>
+      <c r="AW54" s="65"/>
+      <c r="AX54" s="65"/>
+      <c r="AY54" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ54" s="62"/>
-      <c r="BA54" s="62"/>
-      <c r="BB54" s="62"/>
-      <c r="BC54" s="62"/>
-      <c r="BD54" s="62"/>
-      <c r="BE54" s="62"/>
-      <c r="BF54" s="73" t="s">
+      <c r="AZ54" s="67"/>
+      <c r="BA54" s="67"/>
+      <c r="BB54" s="67"/>
+      <c r="BC54" s="67"/>
+      <c r="BD54" s="67"/>
+      <c r="BE54" s="67"/>
+      <c r="BF54" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="BG54" s="62"/>
-      <c r="BH54" s="62"/>
-      <c r="BI54" s="62"/>
-      <c r="BJ54" s="62"/>
-      <c r="BK54" s="62"/>
-      <c r="BL54" s="62"/>
-      <c r="BM54" s="62"/>
-      <c r="BN54" s="62"/>
-      <c r="BO54" s="62"/>
-      <c r="BP54" s="73" t="s">
+      <c r="BG54" s="67"/>
+      <c r="BH54" s="67"/>
+      <c r="BI54" s="67"/>
+      <c r="BJ54" s="67"/>
+      <c r="BK54" s="67"/>
+      <c r="BL54" s="67"/>
+      <c r="BM54" s="67"/>
+      <c r="BN54" s="67"/>
+      <c r="BO54" s="67"/>
+      <c r="BP54" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="BQ54" s="62"/>
-      <c r="BR54" s="62"/>
-      <c r="BS54" s="62"/>
-      <c r="BT54" s="62"/>
-      <c r="BU54" s="62"/>
-      <c r="BV54" s="62"/>
-      <c r="BW54" s="62"/>
-      <c r="BX54" s="62"/>
-      <c r="BY54" s="62"/>
-      <c r="BZ54" s="62"/>
-      <c r="CA54" s="62"/>
-      <c r="CB54" s="62"/>
-      <c r="CC54" s="62"/>
-      <c r="CD54" s="62"/>
-      <c r="CE54" s="66" t="s">
+      <c r="BQ54" s="67"/>
+      <c r="BR54" s="67"/>
+      <c r="BS54" s="67"/>
+      <c r="BT54" s="67"/>
+      <c r="BU54" s="67"/>
+      <c r="BV54" s="67"/>
+      <c r="BW54" s="67"/>
+      <c r="BX54" s="67"/>
+      <c r="BY54" s="67"/>
+      <c r="BZ54" s="67"/>
+      <c r="CA54" s="67"/>
+      <c r="CB54" s="67"/>
+      <c r="CC54" s="67"/>
+      <c r="CD54" s="67"/>
+      <c r="CE54" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF54" s="67"/>
-      <c r="CG54" s="68"/>
+      <c r="CF54" s="68"/>
+      <c r="CG54" s="69"/>
     </row>
     <row r="55" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="67" t="s">
+      <c r="C55" s="55"/>
+      <c r="D55" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="66" t="s">
+      <c r="E55" s="55"/>
+      <c r="F55" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="69" t="s">
+      <c r="G55" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H55" s="66" t="s">
+      <c r="H55" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="58">
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="55">
         <v>1</v>
       </c>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58">
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55">
         <v>1</v>
       </c>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="58">
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55">
         <v>3</v>
       </c>
-      <c r="R55" s="58"/>
-      <c r="S55" s="70" t="s">
+      <c r="R55" s="55"/>
+      <c r="S55" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="T55" s="71"/>
-      <c r="U55" s="71"/>
-      <c r="V55" s="71"/>
-      <c r="W55" s="71"/>
-      <c r="X55" s="72"/>
-      <c r="Y55" s="73" t="s">
+      <c r="T55" s="57"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="58"/>
+      <c r="Y55" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="Z55" s="74"/>
-      <c r="AA55" s="74"/>
-      <c r="AB55" s="74"/>
-      <c r="AC55" s="74"/>
-      <c r="AD55" s="74"/>
-      <c r="AE55" s="74"/>
-      <c r="AF55" s="74"/>
-      <c r="AG55" s="74"/>
-      <c r="AH55" s="74"/>
-      <c r="AI55" s="74"/>
-      <c r="AJ55" s="74"/>
-      <c r="AK55" s="74"/>
-      <c r="AL55" s="74"/>
-      <c r="AM55" s="74"/>
-      <c r="AN55" s="74"/>
-      <c r="AO55" s="74"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
+      <c r="AB55" s="60"/>
+      <c r="AC55" s="60"/>
+      <c r="AD55" s="60"/>
+      <c r="AE55" s="60"/>
+      <c r="AF55" s="60"/>
+      <c r="AG55" s="60"/>
+      <c r="AH55" s="60"/>
+      <c r="AI55" s="60"/>
+      <c r="AJ55" s="60"/>
+      <c r="AK55" s="60"/>
+      <c r="AL55" s="60"/>
+      <c r="AM55" s="60"/>
+      <c r="AN55" s="60"/>
+      <c r="AO55" s="60"/>
       <c r="AP55" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ55" s="59" t="s">
+      <c r="AQ55" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR55" s="60"/>
-      <c r="AS55" s="60"/>
-      <c r="AT55" s="60"/>
-      <c r="AU55" s="60"/>
-      <c r="AV55" s="60"/>
-      <c r="AW55" s="60"/>
-      <c r="AX55" s="60"/>
-      <c r="AY55" s="61" t="s">
+      <c r="AR55" s="65"/>
+      <c r="AS55" s="65"/>
+      <c r="AT55" s="65"/>
+      <c r="AU55" s="65"/>
+      <c r="AV55" s="65"/>
+      <c r="AW55" s="65"/>
+      <c r="AX55" s="65"/>
+      <c r="AY55" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ55" s="62"/>
-      <c r="BA55" s="62"/>
-      <c r="BB55" s="62"/>
-      <c r="BC55" s="62"/>
-      <c r="BD55" s="62"/>
-      <c r="BE55" s="62"/>
-      <c r="BF55" s="73" t="s">
+      <c r="AZ55" s="67"/>
+      <c r="BA55" s="67"/>
+      <c r="BB55" s="67"/>
+      <c r="BC55" s="67"/>
+      <c r="BD55" s="67"/>
+      <c r="BE55" s="67"/>
+      <c r="BF55" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="BG55" s="62"/>
-      <c r="BH55" s="62"/>
-      <c r="BI55" s="62"/>
-      <c r="BJ55" s="62"/>
-      <c r="BK55" s="62"/>
-      <c r="BL55" s="62"/>
-      <c r="BM55" s="62"/>
-      <c r="BN55" s="62"/>
-      <c r="BO55" s="62"/>
-      <c r="BP55" s="73" t="s">
+      <c r="BG55" s="67"/>
+      <c r="BH55" s="67"/>
+      <c r="BI55" s="67"/>
+      <c r="BJ55" s="67"/>
+      <c r="BK55" s="67"/>
+      <c r="BL55" s="67"/>
+      <c r="BM55" s="67"/>
+      <c r="BN55" s="67"/>
+      <c r="BO55" s="67"/>
+      <c r="BP55" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="BQ55" s="62"/>
-      <c r="BR55" s="62"/>
-      <c r="BS55" s="62"/>
-      <c r="BT55" s="62"/>
-      <c r="BU55" s="62"/>
-      <c r="BV55" s="62"/>
-      <c r="BW55" s="62"/>
-      <c r="BX55" s="62"/>
-      <c r="BY55" s="62"/>
-      <c r="BZ55" s="62"/>
-      <c r="CA55" s="62"/>
-      <c r="CB55" s="62"/>
-      <c r="CC55" s="62"/>
-      <c r="CD55" s="62"/>
-      <c r="CE55" s="66" t="s">
+      <c r="BQ55" s="67"/>
+      <c r="BR55" s="67"/>
+      <c r="BS55" s="67"/>
+      <c r="BT55" s="67"/>
+      <c r="BU55" s="67"/>
+      <c r="BV55" s="67"/>
+      <c r="BW55" s="67"/>
+      <c r="BX55" s="67"/>
+      <c r="BY55" s="67"/>
+      <c r="BZ55" s="67"/>
+      <c r="CA55" s="67"/>
+      <c r="CB55" s="67"/>
+      <c r="CC55" s="67"/>
+      <c r="CD55" s="67"/>
+      <c r="CE55" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF55" s="67"/>
-      <c r="CG55" s="68"/>
+      <c r="CF55" s="68"/>
+      <c r="CG55" s="69"/>
     </row>
     <row r="56" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="67" t="s">
+      <c r="C56" s="55"/>
+      <c r="D56" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="66" t="s">
+      <c r="E56" s="55"/>
+      <c r="F56" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G56" s="69" t="s">
+      <c r="G56" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="66" t="s">
+      <c r="H56" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="58">
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="55">
         <v>1</v>
       </c>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58">
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55">
         <v>1</v>
       </c>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="58">
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55">
         <v>3</v>
       </c>
-      <c r="R56" s="58"/>
-      <c r="S56" s="70" t="s">
+      <c r="R56" s="55"/>
+      <c r="S56" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="72"/>
-      <c r="Y56" s="73" t="s">
+      <c r="T56" s="57"/>
+      <c r="U56" s="57"/>
+      <c r="V56" s="57"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="58"/>
+      <c r="Y56" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="Z56" s="74"/>
-      <c r="AA56" s="74"/>
-      <c r="AB56" s="74"/>
-      <c r="AC56" s="74"/>
-      <c r="AD56" s="74"/>
-      <c r="AE56" s="74"/>
-      <c r="AF56" s="74"/>
-      <c r="AG56" s="74"/>
-      <c r="AH56" s="74"/>
-      <c r="AI56" s="74"/>
-      <c r="AJ56" s="74"/>
-      <c r="AK56" s="74"/>
-      <c r="AL56" s="74"/>
-      <c r="AM56" s="74"/>
-      <c r="AN56" s="74"/>
-      <c r="AO56" s="74"/>
+      <c r="Z56" s="60"/>
+      <c r="AA56" s="60"/>
+      <c r="AB56" s="60"/>
+      <c r="AC56" s="60"/>
+      <c r="AD56" s="60"/>
+      <c r="AE56" s="60"/>
+      <c r="AF56" s="60"/>
+      <c r="AG56" s="60"/>
+      <c r="AH56" s="60"/>
+      <c r="AI56" s="60"/>
+      <c r="AJ56" s="60"/>
+      <c r="AK56" s="60"/>
+      <c r="AL56" s="60"/>
+      <c r="AM56" s="60"/>
+      <c r="AN56" s="60"/>
+      <c r="AO56" s="60"/>
       <c r="AP56" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ56" s="59" t="s">
+      <c r="AQ56" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR56" s="60"/>
-      <c r="AS56" s="60"/>
-      <c r="AT56" s="60"/>
-      <c r="AU56" s="60"/>
-      <c r="AV56" s="60"/>
-      <c r="AW56" s="60"/>
-      <c r="AX56" s="60"/>
-      <c r="AY56" s="61" t="s">
+      <c r="AR56" s="65"/>
+      <c r="AS56" s="65"/>
+      <c r="AT56" s="65"/>
+      <c r="AU56" s="65"/>
+      <c r="AV56" s="65"/>
+      <c r="AW56" s="65"/>
+      <c r="AX56" s="65"/>
+      <c r="AY56" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ56" s="62"/>
-      <c r="BA56" s="62"/>
-      <c r="BB56" s="62"/>
-      <c r="BC56" s="62"/>
-      <c r="BD56" s="62"/>
-      <c r="BE56" s="62"/>
-      <c r="BF56" s="73" t="s">
+      <c r="AZ56" s="67"/>
+      <c r="BA56" s="67"/>
+      <c r="BB56" s="67"/>
+      <c r="BC56" s="67"/>
+      <c r="BD56" s="67"/>
+      <c r="BE56" s="67"/>
+      <c r="BF56" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="BG56" s="62"/>
-      <c r="BH56" s="62"/>
-      <c r="BI56" s="62"/>
-      <c r="BJ56" s="62"/>
-      <c r="BK56" s="62"/>
-      <c r="BL56" s="62"/>
-      <c r="BM56" s="62"/>
-      <c r="BN56" s="62"/>
-      <c r="BO56" s="62"/>
-      <c r="BP56" s="73" t="s">
+      <c r="BG56" s="67"/>
+      <c r="BH56" s="67"/>
+      <c r="BI56" s="67"/>
+      <c r="BJ56" s="67"/>
+      <c r="BK56" s="67"/>
+      <c r="BL56" s="67"/>
+      <c r="BM56" s="67"/>
+      <c r="BN56" s="67"/>
+      <c r="BO56" s="67"/>
+      <c r="BP56" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="BQ56" s="62"/>
-      <c r="BR56" s="62"/>
-      <c r="BS56" s="62"/>
-      <c r="BT56" s="62"/>
-      <c r="BU56" s="62"/>
-      <c r="BV56" s="62"/>
-      <c r="BW56" s="62"/>
-      <c r="BX56" s="62"/>
-      <c r="BY56" s="62"/>
-      <c r="BZ56" s="62"/>
-      <c r="CA56" s="62"/>
-      <c r="CB56" s="62"/>
-      <c r="CC56" s="62"/>
-      <c r="CD56" s="62"/>
-      <c r="CE56" s="66" t="s">
+      <c r="BQ56" s="67"/>
+      <c r="BR56" s="67"/>
+      <c r="BS56" s="67"/>
+      <c r="BT56" s="67"/>
+      <c r="BU56" s="67"/>
+      <c r="BV56" s="67"/>
+      <c r="BW56" s="67"/>
+      <c r="BX56" s="67"/>
+      <c r="BY56" s="67"/>
+      <c r="BZ56" s="67"/>
+      <c r="CA56" s="67"/>
+      <c r="CB56" s="67"/>
+      <c r="CC56" s="67"/>
+      <c r="CD56" s="67"/>
+      <c r="CE56" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF56" s="67"/>
-      <c r="CG56" s="68"/>
+      <c r="CF56" s="68"/>
+      <c r="CG56" s="69"/>
     </row>
     <row r="57" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="67" t="s">
+      <c r="C57" s="55"/>
+      <c r="D57" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="66" t="s">
+      <c r="E57" s="55"/>
+      <c r="F57" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="66" t="s">
+      <c r="H57" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="58">
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="55">
         <v>1</v>
       </c>
-      <c r="L57" s="58"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58">
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55">
         <v>1</v>
       </c>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="58">
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55">
         <v>3</v>
       </c>
-      <c r="R57" s="58"/>
-      <c r="S57" s="70" t="s">
+      <c r="R57" s="55"/>
+      <c r="S57" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="72"/>
-      <c r="Y57" s="73" t="s">
+      <c r="T57" s="57"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="58"/>
+      <c r="Y57" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="Z57" s="74"/>
-      <c r="AA57" s="74"/>
-      <c r="AB57" s="74"/>
-      <c r="AC57" s="74"/>
-      <c r="AD57" s="74"/>
-      <c r="AE57" s="74"/>
-      <c r="AF57" s="74"/>
-      <c r="AG57" s="74"/>
-      <c r="AH57" s="74"/>
-      <c r="AI57" s="74"/>
-      <c r="AJ57" s="74"/>
-      <c r="AK57" s="74"/>
-      <c r="AL57" s="74"/>
-      <c r="AM57" s="74"/>
-      <c r="AN57" s="74"/>
-      <c r="AO57" s="74"/>
+      <c r="Z57" s="60"/>
+      <c r="AA57" s="60"/>
+      <c r="AB57" s="60"/>
+      <c r="AC57" s="60"/>
+      <c r="AD57" s="60"/>
+      <c r="AE57" s="60"/>
+      <c r="AF57" s="60"/>
+      <c r="AG57" s="60"/>
+      <c r="AH57" s="60"/>
+      <c r="AI57" s="60"/>
+      <c r="AJ57" s="60"/>
+      <c r="AK57" s="60"/>
+      <c r="AL57" s="60"/>
+      <c r="AM57" s="60"/>
+      <c r="AN57" s="60"/>
+      <c r="AO57" s="60"/>
       <c r="AP57" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ57" s="59" t="s">
+      <c r="AQ57" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR57" s="60"/>
-      <c r="AS57" s="60"/>
-      <c r="AT57" s="60"/>
-      <c r="AU57" s="60"/>
-      <c r="AV57" s="60"/>
-      <c r="AW57" s="60"/>
-      <c r="AX57" s="60"/>
-      <c r="AY57" s="61" t="s">
+      <c r="AR57" s="65"/>
+      <c r="AS57" s="65"/>
+      <c r="AT57" s="65"/>
+      <c r="AU57" s="65"/>
+      <c r="AV57" s="65"/>
+      <c r="AW57" s="65"/>
+      <c r="AX57" s="65"/>
+      <c r="AY57" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ57" s="62"/>
-      <c r="BA57" s="62"/>
-      <c r="BB57" s="62"/>
-      <c r="BC57" s="62"/>
-      <c r="BD57" s="62"/>
-      <c r="BE57" s="62"/>
-      <c r="BF57" s="73" t="s">
+      <c r="AZ57" s="67"/>
+      <c r="BA57" s="67"/>
+      <c r="BB57" s="67"/>
+      <c r="BC57" s="67"/>
+      <c r="BD57" s="67"/>
+      <c r="BE57" s="67"/>
+      <c r="BF57" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="BG57" s="62"/>
-      <c r="BH57" s="62"/>
-      <c r="BI57" s="62"/>
-      <c r="BJ57" s="62"/>
-      <c r="BK57" s="62"/>
-      <c r="BL57" s="62"/>
-      <c r="BM57" s="62"/>
-      <c r="BN57" s="62"/>
-      <c r="BO57" s="62"/>
-      <c r="BP57" s="73" t="s">
+      <c r="BG57" s="67"/>
+      <c r="BH57" s="67"/>
+      <c r="BI57" s="67"/>
+      <c r="BJ57" s="67"/>
+      <c r="BK57" s="67"/>
+      <c r="BL57" s="67"/>
+      <c r="BM57" s="67"/>
+      <c r="BN57" s="67"/>
+      <c r="BO57" s="67"/>
+      <c r="BP57" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="BQ57" s="62"/>
-      <c r="BR57" s="62"/>
-      <c r="BS57" s="62"/>
-      <c r="BT57" s="62"/>
-      <c r="BU57" s="62"/>
-      <c r="BV57" s="62"/>
-      <c r="BW57" s="62"/>
-      <c r="BX57" s="62"/>
-      <c r="BY57" s="62"/>
-      <c r="BZ57" s="62"/>
-      <c r="CA57" s="62"/>
-      <c r="CB57" s="62"/>
-      <c r="CC57" s="62"/>
-      <c r="CD57" s="62"/>
-      <c r="CE57" s="66" t="s">
+      <c r="BQ57" s="67"/>
+      <c r="BR57" s="67"/>
+      <c r="BS57" s="67"/>
+      <c r="BT57" s="67"/>
+      <c r="BU57" s="67"/>
+      <c r="BV57" s="67"/>
+      <c r="BW57" s="67"/>
+      <c r="BX57" s="67"/>
+      <c r="BY57" s="67"/>
+      <c r="BZ57" s="67"/>
+      <c r="CA57" s="67"/>
+      <c r="CB57" s="67"/>
+      <c r="CC57" s="67"/>
+      <c r="CD57" s="67"/>
+      <c r="CE57" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF57" s="67"/>
-      <c r="CG57" s="68"/>
+      <c r="CF57" s="68"/>
+      <c r="CG57" s="69"/>
     </row>
     <row r="58" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="80" t="s">
+      <c r="C58" s="55"/>
+      <c r="D58" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="81"/>
-      <c r="F58" s="66" t="s">
+      <c r="E58" s="182"/>
+      <c r="F58" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G58" s="69" t="s">
+      <c r="G58" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H58" s="66" t="s">
+      <c r="H58" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="58">
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="55">
         <v>1</v>
       </c>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58">
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55">
         <v>1</v>
       </c>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="58">
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55">
         <v>3</v>
       </c>
-      <c r="R58" s="58"/>
-      <c r="S58" s="70" t="s">
+      <c r="R58" s="55"/>
+      <c r="S58" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="72"/>
-      <c r="Y58" s="73" t="s">
+      <c r="T58" s="57"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="57"/>
+      <c r="W58" s="57"/>
+      <c r="X58" s="58"/>
+      <c r="Y58" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="Z58" s="74"/>
-      <c r="AA58" s="74"/>
-      <c r="AB58" s="74"/>
-      <c r="AC58" s="74"/>
-      <c r="AD58" s="74"/>
-      <c r="AE58" s="74"/>
-      <c r="AF58" s="74"/>
-      <c r="AG58" s="74"/>
-      <c r="AH58" s="74"/>
-      <c r="AI58" s="74"/>
-      <c r="AJ58" s="74"/>
-      <c r="AK58" s="74"/>
-      <c r="AL58" s="74"/>
-      <c r="AM58" s="74"/>
-      <c r="AN58" s="74"/>
-      <c r="AO58" s="74"/>
+      <c r="Z58" s="60"/>
+      <c r="AA58" s="60"/>
+      <c r="AB58" s="60"/>
+      <c r="AC58" s="60"/>
+      <c r="AD58" s="60"/>
+      <c r="AE58" s="60"/>
+      <c r="AF58" s="60"/>
+      <c r="AG58" s="60"/>
+      <c r="AH58" s="60"/>
+      <c r="AI58" s="60"/>
+      <c r="AJ58" s="60"/>
+      <c r="AK58" s="60"/>
+      <c r="AL58" s="60"/>
+      <c r="AM58" s="60"/>
+      <c r="AN58" s="60"/>
+      <c r="AO58" s="60"/>
       <c r="AP58" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ58" s="59" t="s">
+      <c r="AQ58" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR58" s="60"/>
-      <c r="AS58" s="60"/>
-      <c r="AT58" s="60"/>
-      <c r="AU58" s="60"/>
-      <c r="AV58" s="60"/>
-      <c r="AW58" s="60"/>
-      <c r="AX58" s="60"/>
-      <c r="AY58" s="61" t="s">
+      <c r="AR58" s="65"/>
+      <c r="AS58" s="65"/>
+      <c r="AT58" s="65"/>
+      <c r="AU58" s="65"/>
+      <c r="AV58" s="65"/>
+      <c r="AW58" s="65"/>
+      <c r="AX58" s="65"/>
+      <c r="AY58" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ58" s="62"/>
-      <c r="BA58" s="62"/>
-      <c r="BB58" s="62"/>
-      <c r="BC58" s="62"/>
-      <c r="BD58" s="62"/>
-      <c r="BE58" s="62"/>
-      <c r="BF58" s="73" t="s">
+      <c r="AZ58" s="67"/>
+      <c r="BA58" s="67"/>
+      <c r="BB58" s="67"/>
+      <c r="BC58" s="67"/>
+      <c r="BD58" s="67"/>
+      <c r="BE58" s="67"/>
+      <c r="BF58" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="BG58" s="62"/>
-      <c r="BH58" s="62"/>
-      <c r="BI58" s="62"/>
-      <c r="BJ58" s="62"/>
-      <c r="BK58" s="62"/>
-      <c r="BL58" s="62"/>
-      <c r="BM58" s="62"/>
-      <c r="BN58" s="62"/>
-      <c r="BO58" s="62"/>
-      <c r="BP58" s="73" t="s">
+      <c r="BG58" s="67"/>
+      <c r="BH58" s="67"/>
+      <c r="BI58" s="67"/>
+      <c r="BJ58" s="67"/>
+      <c r="BK58" s="67"/>
+      <c r="BL58" s="67"/>
+      <c r="BM58" s="67"/>
+      <c r="BN58" s="67"/>
+      <c r="BO58" s="67"/>
+      <c r="BP58" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="BQ58" s="62"/>
-      <c r="BR58" s="62"/>
-      <c r="BS58" s="62"/>
-      <c r="BT58" s="62"/>
-      <c r="BU58" s="62"/>
-      <c r="BV58" s="62"/>
-      <c r="BW58" s="62"/>
-      <c r="BX58" s="62"/>
-      <c r="BY58" s="62"/>
-      <c r="BZ58" s="62"/>
-      <c r="CA58" s="62"/>
-      <c r="CB58" s="62"/>
-      <c r="CC58" s="62"/>
-      <c r="CD58" s="62"/>
-      <c r="CE58" s="66" t="s">
+      <c r="BQ58" s="67"/>
+      <c r="BR58" s="67"/>
+      <c r="BS58" s="67"/>
+      <c r="BT58" s="67"/>
+      <c r="BU58" s="67"/>
+      <c r="BV58" s="67"/>
+      <c r="BW58" s="67"/>
+      <c r="BX58" s="67"/>
+      <c r="BY58" s="67"/>
+      <c r="BZ58" s="67"/>
+      <c r="CA58" s="67"/>
+      <c r="CB58" s="67"/>
+      <c r="CC58" s="67"/>
+      <c r="CD58" s="67"/>
+      <c r="CE58" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF58" s="67"/>
-      <c r="CG58" s="68"/>
+      <c r="CF58" s="68"/>
+      <c r="CG58" s="69"/>
     </row>
     <row r="59" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="67" t="s">
+      <c r="C59" s="55"/>
+      <c r="D59" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="66" t="s">
+      <c r="E59" s="55"/>
+      <c r="F59" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G59" s="69" t="s">
+      <c r="G59" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H59" s="66" t="s">
+      <c r="H59" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="58">
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="55">
         <v>1</v>
       </c>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58">
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55">
         <v>1</v>
       </c>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="58">
+      <c r="O59" s="55"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55">
         <v>3</v>
       </c>
-      <c r="R59" s="58"/>
-      <c r="S59" s="70" t="s">
+      <c r="R59" s="55"/>
+      <c r="S59" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="72"/>
-      <c r="Y59" s="73" t="s">
+      <c r="T59" s="57"/>
+      <c r="U59" s="57"/>
+      <c r="V59" s="57"/>
+      <c r="W59" s="57"/>
+      <c r="X59" s="58"/>
+      <c r="Y59" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="Z59" s="74"/>
-      <c r="AA59" s="74"/>
-      <c r="AB59" s="74"/>
-      <c r="AC59" s="74"/>
-      <c r="AD59" s="74"/>
-      <c r="AE59" s="74"/>
-      <c r="AF59" s="74"/>
-      <c r="AG59" s="74"/>
-      <c r="AH59" s="74"/>
-      <c r="AI59" s="74"/>
-      <c r="AJ59" s="74"/>
-      <c r="AK59" s="74"/>
-      <c r="AL59" s="74"/>
-      <c r="AM59" s="74"/>
-      <c r="AN59" s="74"/>
-      <c r="AO59" s="74"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="60"/>
+      <c r="AB59" s="60"/>
+      <c r="AC59" s="60"/>
+      <c r="AD59" s="60"/>
+      <c r="AE59" s="60"/>
+      <c r="AF59" s="60"/>
+      <c r="AG59" s="60"/>
+      <c r="AH59" s="60"/>
+      <c r="AI59" s="60"/>
+      <c r="AJ59" s="60"/>
+      <c r="AK59" s="60"/>
+      <c r="AL59" s="60"/>
+      <c r="AM59" s="60"/>
+      <c r="AN59" s="60"/>
+      <c r="AO59" s="60"/>
       <c r="AP59" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ59" s="59" t="s">
+      <c r="AQ59" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR59" s="60"/>
-      <c r="AS59" s="60"/>
-      <c r="AT59" s="60"/>
-      <c r="AU59" s="60"/>
-      <c r="AV59" s="60"/>
-      <c r="AW59" s="60"/>
-      <c r="AX59" s="60"/>
-      <c r="AY59" s="61" t="s">
+      <c r="AR59" s="65"/>
+      <c r="AS59" s="65"/>
+      <c r="AT59" s="65"/>
+      <c r="AU59" s="65"/>
+      <c r="AV59" s="65"/>
+      <c r="AW59" s="65"/>
+      <c r="AX59" s="65"/>
+      <c r="AY59" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ59" s="62"/>
-      <c r="BA59" s="62"/>
-      <c r="BB59" s="62"/>
-      <c r="BC59" s="62"/>
-      <c r="BD59" s="62"/>
-      <c r="BE59" s="62"/>
-      <c r="BF59" s="73" t="s">
+      <c r="AZ59" s="67"/>
+      <c r="BA59" s="67"/>
+      <c r="BB59" s="67"/>
+      <c r="BC59" s="67"/>
+      <c r="BD59" s="67"/>
+      <c r="BE59" s="67"/>
+      <c r="BF59" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="BG59" s="62"/>
-      <c r="BH59" s="62"/>
-      <c r="BI59" s="62"/>
-      <c r="BJ59" s="62"/>
-      <c r="BK59" s="62"/>
-      <c r="BL59" s="62"/>
-      <c r="BM59" s="62"/>
-      <c r="BN59" s="62"/>
-      <c r="BO59" s="62"/>
-      <c r="BP59" s="73" t="s">
+      <c r="BG59" s="67"/>
+      <c r="BH59" s="67"/>
+      <c r="BI59" s="67"/>
+      <c r="BJ59" s="67"/>
+      <c r="BK59" s="67"/>
+      <c r="BL59" s="67"/>
+      <c r="BM59" s="67"/>
+      <c r="BN59" s="67"/>
+      <c r="BO59" s="67"/>
+      <c r="BP59" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="BQ59" s="62"/>
-      <c r="BR59" s="62"/>
-      <c r="BS59" s="62"/>
-      <c r="BT59" s="62"/>
-      <c r="BU59" s="62"/>
-      <c r="BV59" s="62"/>
-      <c r="BW59" s="62"/>
-      <c r="BX59" s="62"/>
-      <c r="BY59" s="62"/>
-      <c r="BZ59" s="62"/>
-      <c r="CA59" s="62"/>
-      <c r="CB59" s="62"/>
-      <c r="CC59" s="62"/>
-      <c r="CD59" s="62"/>
-      <c r="CE59" s="66" t="s">
+      <c r="BQ59" s="67"/>
+      <c r="BR59" s="67"/>
+      <c r="BS59" s="67"/>
+      <c r="BT59" s="67"/>
+      <c r="BU59" s="67"/>
+      <c r="BV59" s="67"/>
+      <c r="BW59" s="67"/>
+      <c r="BX59" s="67"/>
+      <c r="BY59" s="67"/>
+      <c r="BZ59" s="67"/>
+      <c r="CA59" s="67"/>
+      <c r="CB59" s="67"/>
+      <c r="CC59" s="67"/>
+      <c r="CD59" s="67"/>
+      <c r="CE59" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF59" s="67"/>
-      <c r="CG59" s="68"/>
+      <c r="CF59" s="68"/>
+      <c r="CG59" s="69"/>
     </row>
     <row r="60" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="75" t="s">
+      <c r="C60" s="55"/>
+      <c r="D60" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="76"/>
-      <c r="F60" s="66" t="s">
+      <c r="E60" s="72"/>
+      <c r="F60" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="69" t="s">
+      <c r="G60" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="66" t="s">
+      <c r="H60" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="58">
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="55">
         <v>1</v>
       </c>
-      <c r="L60" s="58"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58">
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55">
         <v>1</v>
       </c>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="58">
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55">
         <v>3</v>
       </c>
-      <c r="R60" s="58"/>
-      <c r="S60" s="70" t="s">
+      <c r="R60" s="55"/>
+      <c r="S60" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="72"/>
-      <c r="Y60" s="73" t="s">
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="58"/>
+      <c r="Y60" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="Z60" s="74"/>
-      <c r="AA60" s="74"/>
-      <c r="AB60" s="74"/>
-      <c r="AC60" s="74"/>
-      <c r="AD60" s="74"/>
-      <c r="AE60" s="74"/>
-      <c r="AF60" s="74"/>
-      <c r="AG60" s="74"/>
-      <c r="AH60" s="74"/>
-      <c r="AI60" s="74"/>
-      <c r="AJ60" s="74"/>
-      <c r="AK60" s="74"/>
-      <c r="AL60" s="74"/>
-      <c r="AM60" s="74"/>
-      <c r="AN60" s="74"/>
-      <c r="AO60" s="74"/>
+      <c r="Z60" s="60"/>
+      <c r="AA60" s="60"/>
+      <c r="AB60" s="60"/>
+      <c r="AC60" s="60"/>
+      <c r="AD60" s="60"/>
+      <c r="AE60" s="60"/>
+      <c r="AF60" s="60"/>
+      <c r="AG60" s="60"/>
+      <c r="AH60" s="60"/>
+      <c r="AI60" s="60"/>
+      <c r="AJ60" s="60"/>
+      <c r="AK60" s="60"/>
+      <c r="AL60" s="60"/>
+      <c r="AM60" s="60"/>
+      <c r="AN60" s="60"/>
+      <c r="AO60" s="60"/>
       <c r="AP60" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ60" s="59" t="s">
+      <c r="AQ60" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR60" s="60"/>
-      <c r="AS60" s="60"/>
-      <c r="AT60" s="60"/>
-      <c r="AU60" s="60"/>
-      <c r="AV60" s="60"/>
-      <c r="AW60" s="60"/>
-      <c r="AX60" s="60"/>
-      <c r="AY60" s="61" t="s">
+      <c r="AR60" s="65"/>
+      <c r="AS60" s="65"/>
+      <c r="AT60" s="65"/>
+      <c r="AU60" s="65"/>
+      <c r="AV60" s="65"/>
+      <c r="AW60" s="65"/>
+      <c r="AX60" s="65"/>
+      <c r="AY60" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ60" s="62"/>
-      <c r="BA60" s="62"/>
-      <c r="BB60" s="62"/>
-      <c r="BC60" s="62"/>
-      <c r="BD60" s="62"/>
-      <c r="BE60" s="62"/>
-      <c r="BF60" s="73" t="s">
+      <c r="AZ60" s="67"/>
+      <c r="BA60" s="67"/>
+      <c r="BB60" s="67"/>
+      <c r="BC60" s="67"/>
+      <c r="BD60" s="67"/>
+      <c r="BE60" s="67"/>
+      <c r="BF60" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="BG60" s="62"/>
-      <c r="BH60" s="62"/>
-      <c r="BI60" s="62"/>
-      <c r="BJ60" s="62"/>
-      <c r="BK60" s="62"/>
-      <c r="BL60" s="62"/>
-      <c r="BM60" s="62"/>
-      <c r="BN60" s="62"/>
-      <c r="BO60" s="62"/>
-      <c r="BP60" s="73" t="s">
+      <c r="BG60" s="67"/>
+      <c r="BH60" s="67"/>
+      <c r="BI60" s="67"/>
+      <c r="BJ60" s="67"/>
+      <c r="BK60" s="67"/>
+      <c r="BL60" s="67"/>
+      <c r="BM60" s="67"/>
+      <c r="BN60" s="67"/>
+      <c r="BO60" s="67"/>
+      <c r="BP60" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="BQ60" s="62"/>
-      <c r="BR60" s="62"/>
-      <c r="BS60" s="62"/>
-      <c r="BT60" s="62"/>
-      <c r="BU60" s="62"/>
-      <c r="BV60" s="62"/>
-      <c r="BW60" s="62"/>
-      <c r="BX60" s="62"/>
-      <c r="BY60" s="62"/>
-      <c r="BZ60" s="62"/>
-      <c r="CA60" s="62"/>
-      <c r="CB60" s="62"/>
-      <c r="CC60" s="62"/>
-      <c r="CD60" s="62"/>
-      <c r="CE60" s="66" t="s">
+      <c r="BQ60" s="67"/>
+      <c r="BR60" s="67"/>
+      <c r="BS60" s="67"/>
+      <c r="BT60" s="67"/>
+      <c r="BU60" s="67"/>
+      <c r="BV60" s="67"/>
+      <c r="BW60" s="67"/>
+      <c r="BX60" s="67"/>
+      <c r="BY60" s="67"/>
+      <c r="BZ60" s="67"/>
+      <c r="CA60" s="67"/>
+      <c r="CB60" s="67"/>
+      <c r="CC60" s="67"/>
+      <c r="CD60" s="67"/>
+      <c r="CE60" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF60" s="67"/>
-      <c r="CG60" s="68"/>
+      <c r="CF60" s="68"/>
+      <c r="CG60" s="69"/>
     </row>
     <row r="61" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="75" t="s">
+      <c r="C61" s="55"/>
+      <c r="D61" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="76"/>
-      <c r="F61" s="66" t="s">
+      <c r="E61" s="72"/>
+      <c r="F61" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G61" s="69" t="s">
+      <c r="G61" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H61" s="66" t="s">
+      <c r="H61" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="58">
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="55">
         <v>1</v>
       </c>
-      <c r="L61" s="58"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="58">
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55">
         <v>1</v>
       </c>
-      <c r="O61" s="58"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="58">
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55">
         <v>3</v>
       </c>
-      <c r="R61" s="58"/>
-      <c r="S61" s="70" t="s">
+      <c r="R61" s="55"/>
+      <c r="S61" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="72"/>
-      <c r="Y61" s="73" t="s">
+      <c r="T61" s="57"/>
+      <c r="U61" s="57"/>
+      <c r="V61" s="57"/>
+      <c r="W61" s="57"/>
+      <c r="X61" s="58"/>
+      <c r="Y61" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="Z61" s="74"/>
-      <c r="AA61" s="74"/>
-      <c r="AB61" s="74"/>
-      <c r="AC61" s="74"/>
-      <c r="AD61" s="74"/>
-      <c r="AE61" s="74"/>
-      <c r="AF61" s="74"/>
-      <c r="AG61" s="74"/>
-      <c r="AH61" s="74"/>
-      <c r="AI61" s="74"/>
-      <c r="AJ61" s="74"/>
-      <c r="AK61" s="74"/>
-      <c r="AL61" s="74"/>
-      <c r="AM61" s="74"/>
-      <c r="AN61" s="74"/>
-      <c r="AO61" s="74"/>
+      <c r="Z61" s="60"/>
+      <c r="AA61" s="60"/>
+      <c r="AB61" s="60"/>
+      <c r="AC61" s="60"/>
+      <c r="AD61" s="60"/>
+      <c r="AE61" s="60"/>
+      <c r="AF61" s="60"/>
+      <c r="AG61" s="60"/>
+      <c r="AH61" s="60"/>
+      <c r="AI61" s="60"/>
+      <c r="AJ61" s="60"/>
+      <c r="AK61" s="60"/>
+      <c r="AL61" s="60"/>
+      <c r="AM61" s="60"/>
+      <c r="AN61" s="60"/>
+      <c r="AO61" s="60"/>
       <c r="AP61" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ61" s="59" t="s">
+      <c r="AQ61" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR61" s="60"/>
-      <c r="AS61" s="60"/>
-      <c r="AT61" s="60"/>
-      <c r="AU61" s="60"/>
-      <c r="AV61" s="60"/>
-      <c r="AW61" s="60"/>
-      <c r="AX61" s="60"/>
-      <c r="AY61" s="61" t="s">
+      <c r="AR61" s="65"/>
+      <c r="AS61" s="65"/>
+      <c r="AT61" s="65"/>
+      <c r="AU61" s="65"/>
+      <c r="AV61" s="65"/>
+      <c r="AW61" s="65"/>
+      <c r="AX61" s="65"/>
+      <c r="AY61" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ61" s="62"/>
-      <c r="BA61" s="62"/>
-      <c r="BB61" s="62"/>
-      <c r="BC61" s="62"/>
-      <c r="BD61" s="62"/>
-      <c r="BE61" s="62"/>
-      <c r="BF61" s="73" t="s">
+      <c r="AZ61" s="67"/>
+      <c r="BA61" s="67"/>
+      <c r="BB61" s="67"/>
+      <c r="BC61" s="67"/>
+      <c r="BD61" s="67"/>
+      <c r="BE61" s="67"/>
+      <c r="BF61" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="BG61" s="62"/>
-      <c r="BH61" s="62"/>
-      <c r="BI61" s="62"/>
-      <c r="BJ61" s="62"/>
-      <c r="BK61" s="62"/>
-      <c r="BL61" s="62"/>
-      <c r="BM61" s="62"/>
-      <c r="BN61" s="62"/>
-      <c r="BO61" s="62"/>
-      <c r="BP61" s="73" t="s">
+      <c r="BG61" s="67"/>
+      <c r="BH61" s="67"/>
+      <c r="BI61" s="67"/>
+      <c r="BJ61" s="67"/>
+      <c r="BK61" s="67"/>
+      <c r="BL61" s="67"/>
+      <c r="BM61" s="67"/>
+      <c r="BN61" s="67"/>
+      <c r="BO61" s="67"/>
+      <c r="BP61" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="BQ61" s="62"/>
-      <c r="BR61" s="62"/>
-      <c r="BS61" s="62"/>
-      <c r="BT61" s="62"/>
-      <c r="BU61" s="62"/>
-      <c r="BV61" s="62"/>
-      <c r="BW61" s="62"/>
-      <c r="BX61" s="62"/>
-      <c r="BY61" s="62"/>
-      <c r="BZ61" s="62"/>
-      <c r="CA61" s="62"/>
-      <c r="CB61" s="62"/>
-      <c r="CC61" s="62"/>
-      <c r="CD61" s="62"/>
-      <c r="CE61" s="66" t="s">
+      <c r="BQ61" s="67"/>
+      <c r="BR61" s="67"/>
+      <c r="BS61" s="67"/>
+      <c r="BT61" s="67"/>
+      <c r="BU61" s="67"/>
+      <c r="BV61" s="67"/>
+      <c r="BW61" s="67"/>
+      <c r="BX61" s="67"/>
+      <c r="BY61" s="67"/>
+      <c r="BZ61" s="67"/>
+      <c r="CA61" s="67"/>
+      <c r="CB61" s="67"/>
+      <c r="CC61" s="67"/>
+      <c r="CD61" s="67"/>
+      <c r="CE61" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF61" s="67"/>
-      <c r="CG61" s="68"/>
+      <c r="CF61" s="68"/>
+      <c r="CG61" s="69"/>
     </row>
     <row r="62" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="75" t="s">
+      <c r="C62" s="55"/>
+      <c r="D62" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="76"/>
-      <c r="F62" s="66" t="s">
+      <c r="E62" s="72"/>
+      <c r="F62" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G62" s="69" t="s">
+      <c r="G62" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H62" s="66" t="s">
+      <c r="H62" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="58">
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="55">
         <v>1</v>
       </c>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58">
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55">
         <v>1</v>
       </c>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="58">
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55">
         <v>3</v>
       </c>
-      <c r="R62" s="58"/>
-      <c r="S62" s="70" t="s">
+      <c r="R62" s="55"/>
+      <c r="S62" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="72"/>
-      <c r="Y62" s="73" t="s">
+      <c r="T62" s="57"/>
+      <c r="U62" s="57"/>
+      <c r="V62" s="57"/>
+      <c r="W62" s="57"/>
+      <c r="X62" s="58"/>
+      <c r="Y62" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="Z62" s="74"/>
-      <c r="AA62" s="74"/>
-      <c r="AB62" s="74"/>
-      <c r="AC62" s="74"/>
-      <c r="AD62" s="74"/>
-      <c r="AE62" s="74"/>
-      <c r="AF62" s="74"/>
-      <c r="AG62" s="74"/>
-      <c r="AH62" s="74"/>
-      <c r="AI62" s="74"/>
-      <c r="AJ62" s="74"/>
-      <c r="AK62" s="74"/>
-      <c r="AL62" s="74"/>
-      <c r="AM62" s="74"/>
-      <c r="AN62" s="74"/>
-      <c r="AO62" s="74"/>
+      <c r="Z62" s="60"/>
+      <c r="AA62" s="60"/>
+      <c r="AB62" s="60"/>
+      <c r="AC62" s="60"/>
+      <c r="AD62" s="60"/>
+      <c r="AE62" s="60"/>
+      <c r="AF62" s="60"/>
+      <c r="AG62" s="60"/>
+      <c r="AH62" s="60"/>
+      <c r="AI62" s="60"/>
+      <c r="AJ62" s="60"/>
+      <c r="AK62" s="60"/>
+      <c r="AL62" s="60"/>
+      <c r="AM62" s="60"/>
+      <c r="AN62" s="60"/>
+      <c r="AO62" s="60"/>
       <c r="AP62" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ62" s="59" t="s">
+      <c r="AQ62" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR62" s="60"/>
-      <c r="AS62" s="60"/>
-      <c r="AT62" s="60"/>
-      <c r="AU62" s="60"/>
-      <c r="AV62" s="60"/>
-      <c r="AW62" s="60"/>
-      <c r="AX62" s="60"/>
-      <c r="AY62" s="61" t="s">
+      <c r="AR62" s="65"/>
+      <c r="AS62" s="65"/>
+      <c r="AT62" s="65"/>
+      <c r="AU62" s="65"/>
+      <c r="AV62" s="65"/>
+      <c r="AW62" s="65"/>
+      <c r="AX62" s="65"/>
+      <c r="AY62" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ62" s="62"/>
-      <c r="BA62" s="62"/>
-      <c r="BB62" s="62"/>
-      <c r="BC62" s="62"/>
-      <c r="BD62" s="62"/>
-      <c r="BE62" s="62"/>
-      <c r="BF62" s="63" t="s">
+      <c r="AZ62" s="67"/>
+      <c r="BA62" s="67"/>
+      <c r="BB62" s="67"/>
+      <c r="BC62" s="67"/>
+      <c r="BD62" s="67"/>
+      <c r="BE62" s="67"/>
+      <c r="BF62" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="BG62" s="63"/>
-      <c r="BH62" s="63"/>
-      <c r="BI62" s="63"/>
-      <c r="BJ62" s="63"/>
-      <c r="BK62" s="63"/>
-      <c r="BL62" s="63"/>
-      <c r="BM62" s="63"/>
-      <c r="BN62" s="63"/>
-      <c r="BO62" s="64"/>
-      <c r="BP62" s="63" t="s">
+      <c r="BG62" s="73"/>
+      <c r="BH62" s="73"/>
+      <c r="BI62" s="73"/>
+      <c r="BJ62" s="73"/>
+      <c r="BK62" s="73"/>
+      <c r="BL62" s="73"/>
+      <c r="BM62" s="73"/>
+      <c r="BN62" s="73"/>
+      <c r="BO62" s="74"/>
+      <c r="BP62" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="BQ62" s="63"/>
-      <c r="BR62" s="63"/>
-      <c r="BS62" s="63"/>
-      <c r="BT62" s="63"/>
-      <c r="BU62" s="63"/>
-      <c r="BV62" s="63"/>
-      <c r="BW62" s="63"/>
-      <c r="BX62" s="63"/>
-      <c r="BY62" s="63"/>
-      <c r="BZ62" s="63"/>
-      <c r="CA62" s="63"/>
-      <c r="CB62" s="63"/>
-      <c r="CC62" s="63"/>
-      <c r="CD62" s="64"/>
-      <c r="CE62" s="66" t="s">
+      <c r="BQ62" s="73"/>
+      <c r="BR62" s="73"/>
+      <c r="BS62" s="73"/>
+      <c r="BT62" s="73"/>
+      <c r="BU62" s="73"/>
+      <c r="BV62" s="73"/>
+      <c r="BW62" s="73"/>
+      <c r="BX62" s="73"/>
+      <c r="BY62" s="73"/>
+      <c r="BZ62" s="73"/>
+      <c r="CA62" s="73"/>
+      <c r="CB62" s="73"/>
+      <c r="CC62" s="73"/>
+      <c r="CD62" s="74"/>
+      <c r="CE62" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF62" s="67"/>
-      <c r="CG62" s="68"/>
+      <c r="CF62" s="68"/>
+      <c r="CG62" s="69"/>
     </row>
     <row r="63" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="75" t="s">
+      <c r="C63" s="55"/>
+      <c r="D63" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="76"/>
-      <c r="F63" s="66" t="s">
+      <c r="E63" s="72"/>
+      <c r="F63" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G63" s="69" t="s">
+      <c r="G63" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H63" s="66" t="s">
+      <c r="H63" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="58">
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="55">
         <v>1</v>
       </c>
-      <c r="L63" s="58"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58">
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55">
         <v>1</v>
       </c>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="58">
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55">
         <v>3</v>
       </c>
-      <c r="R63" s="58"/>
-      <c r="S63" s="70" t="s">
+      <c r="R63" s="55"/>
+      <c r="S63" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="T63" s="71"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="72"/>
-      <c r="Y63" s="73" t="s">
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="58"/>
+      <c r="Y63" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="Z63" s="74"/>
-      <c r="AA63" s="74"/>
-      <c r="AB63" s="74"/>
-      <c r="AC63" s="74"/>
-      <c r="AD63" s="74"/>
-      <c r="AE63" s="74"/>
-      <c r="AF63" s="74"/>
-      <c r="AG63" s="74"/>
-      <c r="AH63" s="74"/>
-      <c r="AI63" s="74"/>
-      <c r="AJ63" s="74"/>
-      <c r="AK63" s="74"/>
-      <c r="AL63" s="74"/>
-      <c r="AM63" s="74"/>
-      <c r="AN63" s="74"/>
-      <c r="AO63" s="74"/>
+      <c r="Z63" s="60"/>
+      <c r="AA63" s="60"/>
+      <c r="AB63" s="60"/>
+      <c r="AC63" s="60"/>
+      <c r="AD63" s="60"/>
+      <c r="AE63" s="60"/>
+      <c r="AF63" s="60"/>
+      <c r="AG63" s="60"/>
+      <c r="AH63" s="60"/>
+      <c r="AI63" s="60"/>
+      <c r="AJ63" s="60"/>
+      <c r="AK63" s="60"/>
+      <c r="AL63" s="60"/>
+      <c r="AM63" s="60"/>
+      <c r="AN63" s="60"/>
+      <c r="AO63" s="60"/>
       <c r="AP63" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ63" s="59" t="s">
+      <c r="AQ63" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR63" s="60"/>
-      <c r="AS63" s="60"/>
-      <c r="AT63" s="60"/>
-      <c r="AU63" s="60"/>
-      <c r="AV63" s="60"/>
-      <c r="AW63" s="60"/>
-      <c r="AX63" s="60"/>
-      <c r="AY63" s="61" t="s">
+      <c r="AR63" s="65"/>
+      <c r="AS63" s="65"/>
+      <c r="AT63" s="65"/>
+      <c r="AU63" s="65"/>
+      <c r="AV63" s="65"/>
+      <c r="AW63" s="65"/>
+      <c r="AX63" s="65"/>
+      <c r="AY63" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ63" s="62"/>
-      <c r="BA63" s="62"/>
-      <c r="BB63" s="62"/>
-      <c r="BC63" s="62"/>
-      <c r="BD63" s="62"/>
-      <c r="BE63" s="62"/>
-      <c r="BF63" s="63" t="s">
+      <c r="AZ63" s="67"/>
+      <c r="BA63" s="67"/>
+      <c r="BB63" s="67"/>
+      <c r="BC63" s="67"/>
+      <c r="BD63" s="67"/>
+      <c r="BE63" s="67"/>
+      <c r="BF63" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="BG63" s="63"/>
-      <c r="BH63" s="63"/>
-      <c r="BI63" s="63"/>
-      <c r="BJ63" s="63"/>
-      <c r="BK63" s="63"/>
-      <c r="BL63" s="63"/>
-      <c r="BM63" s="63"/>
-      <c r="BN63" s="63"/>
-      <c r="BO63" s="64"/>
-      <c r="BP63" s="63" t="s">
+      <c r="BG63" s="73"/>
+      <c r="BH63" s="73"/>
+      <c r="BI63" s="73"/>
+      <c r="BJ63" s="73"/>
+      <c r="BK63" s="73"/>
+      <c r="BL63" s="73"/>
+      <c r="BM63" s="73"/>
+      <c r="BN63" s="73"/>
+      <c r="BO63" s="74"/>
+      <c r="BP63" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="BQ63" s="63"/>
-      <c r="BR63" s="63"/>
-      <c r="BS63" s="63"/>
-      <c r="BT63" s="63"/>
-      <c r="BU63" s="63"/>
-      <c r="BV63" s="63"/>
-      <c r="BW63" s="63"/>
-      <c r="BX63" s="63"/>
-      <c r="BY63" s="63"/>
-      <c r="BZ63" s="63"/>
-      <c r="CA63" s="63"/>
-      <c r="CB63" s="63"/>
-      <c r="CC63" s="63"/>
-      <c r="CD63" s="64"/>
-      <c r="CE63" s="66" t="s">
+      <c r="BQ63" s="73"/>
+      <c r="BR63" s="73"/>
+      <c r="BS63" s="73"/>
+      <c r="BT63" s="73"/>
+      <c r="BU63" s="73"/>
+      <c r="BV63" s="73"/>
+      <c r="BW63" s="73"/>
+      <c r="BX63" s="73"/>
+      <c r="BY63" s="73"/>
+      <c r="BZ63" s="73"/>
+      <c r="CA63" s="73"/>
+      <c r="CB63" s="73"/>
+      <c r="CC63" s="73"/>
+      <c r="CD63" s="74"/>
+      <c r="CE63" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF63" s="67"/>
-      <c r="CG63" s="68"/>
+      <c r="CF63" s="68"/>
+      <c r="CG63" s="69"/>
     </row>
     <row r="64" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="75" t="s">
+      <c r="C64" s="55"/>
+      <c r="D64" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="76"/>
-      <c r="F64" s="66" t="s">
+      <c r="E64" s="72"/>
+      <c r="F64" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="69" t="s">
+      <c r="G64" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="66" t="s">
+      <c r="H64" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="58">
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="55">
         <v>1</v>
       </c>
-      <c r="L64" s="58"/>
-      <c r="M64" s="58"/>
-      <c r="N64" s="58">
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55">
         <v>1</v>
       </c>
-      <c r="O64" s="58"/>
-      <c r="P64" s="58"/>
-      <c r="Q64" s="58">
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55">
         <v>3</v>
       </c>
-      <c r="R64" s="58"/>
-      <c r="S64" s="70" t="s">
+      <c r="R64" s="55"/>
+      <c r="S64" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="T64" s="71"/>
-      <c r="U64" s="71"/>
-      <c r="V64" s="71"/>
-      <c r="W64" s="71"/>
-      <c r="X64" s="72"/>
-      <c r="Y64" s="73" t="s">
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="58"/>
+      <c r="Y64" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="Z64" s="74"/>
-      <c r="AA64" s="74"/>
-      <c r="AB64" s="74"/>
-      <c r="AC64" s="74"/>
-      <c r="AD64" s="74"/>
-      <c r="AE64" s="74"/>
-      <c r="AF64" s="74"/>
-      <c r="AG64" s="74"/>
-      <c r="AH64" s="74"/>
-      <c r="AI64" s="74"/>
-      <c r="AJ64" s="74"/>
-      <c r="AK64" s="74"/>
-      <c r="AL64" s="74"/>
-      <c r="AM64" s="74"/>
-      <c r="AN64" s="74"/>
-      <c r="AO64" s="74"/>
+      <c r="Z64" s="60"/>
+      <c r="AA64" s="60"/>
+      <c r="AB64" s="60"/>
+      <c r="AC64" s="60"/>
+      <c r="AD64" s="60"/>
+      <c r="AE64" s="60"/>
+      <c r="AF64" s="60"/>
+      <c r="AG64" s="60"/>
+      <c r="AH64" s="60"/>
+      <c r="AI64" s="60"/>
+      <c r="AJ64" s="60"/>
+      <c r="AK64" s="60"/>
+      <c r="AL64" s="60"/>
+      <c r="AM64" s="60"/>
+      <c r="AN64" s="60"/>
+      <c r="AO64" s="60"/>
       <c r="AP64" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ64" s="59" t="s">
+      <c r="AQ64" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR64" s="60"/>
-      <c r="AS64" s="60"/>
-      <c r="AT64" s="60"/>
-      <c r="AU64" s="60"/>
-      <c r="AV64" s="60"/>
-      <c r="AW64" s="60"/>
-      <c r="AX64" s="60"/>
-      <c r="AY64" s="61" t="s">
+      <c r="AR64" s="65"/>
+      <c r="AS64" s="65"/>
+      <c r="AT64" s="65"/>
+      <c r="AU64" s="65"/>
+      <c r="AV64" s="65"/>
+      <c r="AW64" s="65"/>
+      <c r="AX64" s="65"/>
+      <c r="AY64" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ64" s="62"/>
-      <c r="BA64" s="62"/>
-      <c r="BB64" s="62"/>
-      <c r="BC64" s="62"/>
-      <c r="BD64" s="62"/>
-      <c r="BE64" s="62"/>
-      <c r="BF64" s="63" t="s">
+      <c r="AZ64" s="67"/>
+      <c r="BA64" s="67"/>
+      <c r="BB64" s="67"/>
+      <c r="BC64" s="67"/>
+      <c r="BD64" s="67"/>
+      <c r="BE64" s="67"/>
+      <c r="BF64" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="BG64" s="63"/>
-      <c r="BH64" s="63"/>
-      <c r="BI64" s="63"/>
-      <c r="BJ64" s="63"/>
-      <c r="BK64" s="63"/>
-      <c r="BL64" s="63"/>
-      <c r="BM64" s="63"/>
-      <c r="BN64" s="63"/>
-      <c r="BO64" s="64"/>
-      <c r="BP64" s="63" t="s">
+      <c r="BG64" s="73"/>
+      <c r="BH64" s="73"/>
+      <c r="BI64" s="73"/>
+      <c r="BJ64" s="73"/>
+      <c r="BK64" s="73"/>
+      <c r="BL64" s="73"/>
+      <c r="BM64" s="73"/>
+      <c r="BN64" s="73"/>
+      <c r="BO64" s="74"/>
+      <c r="BP64" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="BQ64" s="63"/>
-      <c r="BR64" s="63"/>
-      <c r="BS64" s="63"/>
-      <c r="BT64" s="63"/>
-      <c r="BU64" s="63"/>
-      <c r="BV64" s="63"/>
-      <c r="BW64" s="63"/>
-      <c r="BX64" s="63"/>
-      <c r="BY64" s="63"/>
-      <c r="BZ64" s="63"/>
-      <c r="CA64" s="63"/>
-      <c r="CB64" s="63"/>
-      <c r="CC64" s="63"/>
-      <c r="CD64" s="64"/>
-      <c r="CE64" s="66" t="s">
+      <c r="BQ64" s="73"/>
+      <c r="BR64" s="73"/>
+      <c r="BS64" s="73"/>
+      <c r="BT64" s="73"/>
+      <c r="BU64" s="73"/>
+      <c r="BV64" s="73"/>
+      <c r="BW64" s="73"/>
+      <c r="BX64" s="73"/>
+      <c r="BY64" s="73"/>
+      <c r="BZ64" s="73"/>
+      <c r="CA64" s="73"/>
+      <c r="CB64" s="73"/>
+      <c r="CC64" s="73"/>
+      <c r="CD64" s="74"/>
+      <c r="CE64" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF64" s="67"/>
-      <c r="CG64" s="68"/>
+      <c r="CF64" s="68"/>
+      <c r="CG64" s="69"/>
     </row>
     <row r="65" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="75" t="s">
+      <c r="C65" s="55"/>
+      <c r="D65" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="76"/>
-      <c r="F65" s="66" t="s">
+      <c r="E65" s="72"/>
+      <c r="F65" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="69" t="s">
+      <c r="G65" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="66" t="s">
+      <c r="H65" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I65" s="69"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="58">
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="55">
         <v>1</v>
       </c>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58">
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55">
         <v>1</v>
       </c>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="58">
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55">
         <v>3</v>
       </c>
-      <c r="R65" s="58"/>
-      <c r="S65" s="70" t="s">
+      <c r="R65" s="55"/>
+      <c r="S65" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="T65" s="71"/>
-      <c r="U65" s="71"/>
-      <c r="V65" s="71"/>
-      <c r="W65" s="71"/>
-      <c r="X65" s="72"/>
-      <c r="Y65" s="73" t="s">
+      <c r="T65" s="57"/>
+      <c r="U65" s="57"/>
+      <c r="V65" s="57"/>
+      <c r="W65" s="57"/>
+      <c r="X65" s="58"/>
+      <c r="Y65" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="Z65" s="74"/>
-      <c r="AA65" s="74"/>
-      <c r="AB65" s="74"/>
-      <c r="AC65" s="74"/>
-      <c r="AD65" s="74"/>
-      <c r="AE65" s="74"/>
-      <c r="AF65" s="74"/>
-      <c r="AG65" s="74"/>
-      <c r="AH65" s="74"/>
-      <c r="AI65" s="74"/>
-      <c r="AJ65" s="74"/>
-      <c r="AK65" s="74"/>
-      <c r="AL65" s="74"/>
-      <c r="AM65" s="74"/>
-      <c r="AN65" s="74"/>
-      <c r="AO65" s="74"/>
+      <c r="Z65" s="60"/>
+      <c r="AA65" s="60"/>
+      <c r="AB65" s="60"/>
+      <c r="AC65" s="60"/>
+      <c r="AD65" s="60"/>
+      <c r="AE65" s="60"/>
+      <c r="AF65" s="60"/>
+      <c r="AG65" s="60"/>
+      <c r="AH65" s="60"/>
+      <c r="AI65" s="60"/>
+      <c r="AJ65" s="60"/>
+      <c r="AK65" s="60"/>
+      <c r="AL65" s="60"/>
+      <c r="AM65" s="60"/>
+      <c r="AN65" s="60"/>
+      <c r="AO65" s="60"/>
       <c r="AP65" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ65" s="59" t="s">
+      <c r="AQ65" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR65" s="60"/>
-      <c r="AS65" s="60"/>
-      <c r="AT65" s="60"/>
-      <c r="AU65" s="60"/>
-      <c r="AV65" s="60"/>
-      <c r="AW65" s="60"/>
-      <c r="AX65" s="60"/>
-      <c r="AY65" s="61" t="s">
+      <c r="AR65" s="65"/>
+      <c r="AS65" s="65"/>
+      <c r="AT65" s="65"/>
+      <c r="AU65" s="65"/>
+      <c r="AV65" s="65"/>
+      <c r="AW65" s="65"/>
+      <c r="AX65" s="65"/>
+      <c r="AY65" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ65" s="62"/>
-      <c r="BA65" s="62"/>
-      <c r="BB65" s="62"/>
-      <c r="BC65" s="62"/>
-      <c r="BD65" s="62"/>
-      <c r="BE65" s="62"/>
-      <c r="BF65" s="63" t="s">
+      <c r="AZ65" s="67"/>
+      <c r="BA65" s="67"/>
+      <c r="BB65" s="67"/>
+      <c r="BC65" s="67"/>
+      <c r="BD65" s="67"/>
+      <c r="BE65" s="67"/>
+      <c r="BF65" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="BG65" s="63"/>
-      <c r="BH65" s="63"/>
-      <c r="BI65" s="63"/>
-      <c r="BJ65" s="63"/>
-      <c r="BK65" s="63"/>
-      <c r="BL65" s="63"/>
-      <c r="BM65" s="63"/>
-      <c r="BN65" s="63"/>
-      <c r="BO65" s="64"/>
-      <c r="BP65" s="63" t="s">
+      <c r="BG65" s="73"/>
+      <c r="BH65" s="73"/>
+      <c r="BI65" s="73"/>
+      <c r="BJ65" s="73"/>
+      <c r="BK65" s="73"/>
+      <c r="BL65" s="73"/>
+      <c r="BM65" s="73"/>
+      <c r="BN65" s="73"/>
+      <c r="BO65" s="74"/>
+      <c r="BP65" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="BQ65" s="63"/>
-      <c r="BR65" s="63"/>
-      <c r="BS65" s="63"/>
-      <c r="BT65" s="63"/>
-      <c r="BU65" s="63"/>
-      <c r="BV65" s="63"/>
-      <c r="BW65" s="63"/>
-      <c r="BX65" s="63"/>
-      <c r="BY65" s="63"/>
-      <c r="BZ65" s="63"/>
-      <c r="CA65" s="63"/>
-      <c r="CB65" s="63"/>
-      <c r="CC65" s="63"/>
-      <c r="CD65" s="64"/>
-      <c r="CE65" s="66" t="s">
+      <c r="BQ65" s="73"/>
+      <c r="BR65" s="73"/>
+      <c r="BS65" s="73"/>
+      <c r="BT65" s="73"/>
+      <c r="BU65" s="73"/>
+      <c r="BV65" s="73"/>
+      <c r="BW65" s="73"/>
+      <c r="BX65" s="73"/>
+      <c r="BY65" s="73"/>
+      <c r="BZ65" s="73"/>
+      <c r="CA65" s="73"/>
+      <c r="CB65" s="73"/>
+      <c r="CC65" s="73"/>
+      <c r="CD65" s="74"/>
+      <c r="CE65" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF65" s="67"/>
-      <c r="CG65" s="68"/>
+      <c r="CF65" s="68"/>
+      <c r="CG65" s="69"/>
     </row>
     <row r="66" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="58"/>
-      <c r="D66" s="75" t="s">
+      <c r="C66" s="55"/>
+      <c r="D66" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="76"/>
-      <c r="F66" s="66" t="s">
+      <c r="E66" s="72"/>
+      <c r="F66" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="69" t="s">
+      <c r="G66" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H66" s="66" t="s">
+      <c r="H66" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I66" s="69"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="58">
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="55">
         <v>1</v>
       </c>
-      <c r="L66" s="58"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="58">
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55">
         <v>1</v>
       </c>
-      <c r="O66" s="58"/>
-      <c r="P66" s="58"/>
-      <c r="Q66" s="58">
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55">
         <v>3</v>
       </c>
-      <c r="R66" s="58"/>
-      <c r="S66" s="70" t="s">
+      <c r="R66" s="55"/>
+      <c r="S66" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="T66" s="71"/>
-      <c r="U66" s="71"/>
-      <c r="V66" s="71"/>
-      <c r="W66" s="71"/>
-      <c r="X66" s="72"/>
-      <c r="Y66" s="73" t="s">
+      <c r="T66" s="57"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="58"/>
+      <c r="Y66" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="Z66" s="74"/>
-      <c r="AA66" s="74"/>
-      <c r="AB66" s="74"/>
-      <c r="AC66" s="74"/>
-      <c r="AD66" s="74"/>
-      <c r="AE66" s="74"/>
-      <c r="AF66" s="74"/>
-      <c r="AG66" s="74"/>
-      <c r="AH66" s="74"/>
-      <c r="AI66" s="74"/>
-      <c r="AJ66" s="74"/>
-      <c r="AK66" s="74"/>
-      <c r="AL66" s="74"/>
-      <c r="AM66" s="74"/>
-      <c r="AN66" s="74"/>
-      <c r="AO66" s="74"/>
+      <c r="Z66" s="60"/>
+      <c r="AA66" s="60"/>
+      <c r="AB66" s="60"/>
+      <c r="AC66" s="60"/>
+      <c r="AD66" s="60"/>
+      <c r="AE66" s="60"/>
+      <c r="AF66" s="60"/>
+      <c r="AG66" s="60"/>
+      <c r="AH66" s="60"/>
+      <c r="AI66" s="60"/>
+      <c r="AJ66" s="60"/>
+      <c r="AK66" s="60"/>
+      <c r="AL66" s="60"/>
+      <c r="AM66" s="60"/>
+      <c r="AN66" s="60"/>
+      <c r="AO66" s="60"/>
       <c r="AP66" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ66" s="59" t="s">
+      <c r="AQ66" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR66" s="60"/>
-      <c r="AS66" s="60"/>
-      <c r="AT66" s="60"/>
-      <c r="AU66" s="60"/>
-      <c r="AV66" s="60"/>
-      <c r="AW66" s="60"/>
-      <c r="AX66" s="60"/>
-      <c r="AY66" s="61" t="s">
+      <c r="AR66" s="65"/>
+      <c r="AS66" s="65"/>
+      <c r="AT66" s="65"/>
+      <c r="AU66" s="65"/>
+      <c r="AV66" s="65"/>
+      <c r="AW66" s="65"/>
+      <c r="AX66" s="65"/>
+      <c r="AY66" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ66" s="62"/>
-      <c r="BA66" s="62"/>
-      <c r="BB66" s="62"/>
-      <c r="BC66" s="62"/>
-      <c r="BD66" s="62"/>
-      <c r="BE66" s="62"/>
-      <c r="BF66" s="63" t="s">
+      <c r="AZ66" s="67"/>
+      <c r="BA66" s="67"/>
+      <c r="BB66" s="67"/>
+      <c r="BC66" s="67"/>
+      <c r="BD66" s="67"/>
+      <c r="BE66" s="67"/>
+      <c r="BF66" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="BG66" s="63"/>
-      <c r="BH66" s="63"/>
-      <c r="BI66" s="63"/>
-      <c r="BJ66" s="63"/>
-      <c r="BK66" s="63"/>
-      <c r="BL66" s="63"/>
-      <c r="BM66" s="63"/>
-      <c r="BN66" s="63"/>
-      <c r="BO66" s="64"/>
-      <c r="BP66" s="65" t="s">
+      <c r="BG66" s="73"/>
+      <c r="BH66" s="73"/>
+      <c r="BI66" s="73"/>
+      <c r="BJ66" s="73"/>
+      <c r="BK66" s="73"/>
+      <c r="BL66" s="73"/>
+      <c r="BM66" s="73"/>
+      <c r="BN66" s="73"/>
+      <c r="BO66" s="74"/>
+      <c r="BP66" s="183" t="s">
         <v>200</v>
       </c>
-      <c r="BQ66" s="63"/>
-      <c r="BR66" s="63"/>
-      <c r="BS66" s="63"/>
-      <c r="BT66" s="63"/>
-      <c r="BU66" s="63"/>
-      <c r="BV66" s="63"/>
-      <c r="BW66" s="63"/>
-      <c r="BX66" s="63"/>
-      <c r="BY66" s="63"/>
-      <c r="BZ66" s="63"/>
-      <c r="CA66" s="63"/>
-      <c r="CB66" s="63"/>
-      <c r="CC66" s="63"/>
-      <c r="CD66" s="64"/>
-      <c r="CE66" s="66" t="s">
+      <c r="BQ66" s="73"/>
+      <c r="BR66" s="73"/>
+      <c r="BS66" s="73"/>
+      <c r="BT66" s="73"/>
+      <c r="BU66" s="73"/>
+      <c r="BV66" s="73"/>
+      <c r="BW66" s="73"/>
+      <c r="BX66" s="73"/>
+      <c r="BY66" s="73"/>
+      <c r="BZ66" s="73"/>
+      <c r="CA66" s="73"/>
+      <c r="CB66" s="73"/>
+      <c r="CC66" s="73"/>
+      <c r="CD66" s="74"/>
+      <c r="CE66" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF66" s="67"/>
-      <c r="CG66" s="68"/>
+      <c r="CF66" s="68"/>
+      <c r="CG66" s="69"/>
     </row>
     <row r="67" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="67" t="s">
+      <c r="C67" s="55"/>
+      <c r="D67" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="66" t="s">
+      <c r="E67" s="55"/>
+      <c r="F67" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G67" s="69" t="s">
+      <c r="G67" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H67" s="66" t="s">
+      <c r="H67" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I67" s="69"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="58">
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="55">
         <v>1</v>
       </c>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58">
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55">
         <v>1</v>
       </c>
-      <c r="O67" s="58"/>
-      <c r="P67" s="58"/>
-      <c r="Q67" s="58">
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55">
         <v>3</v>
       </c>
-      <c r="R67" s="58"/>
-      <c r="S67" s="70" t="s">
+      <c r="R67" s="55"/>
+      <c r="S67" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="T67" s="71"/>
-      <c r="U67" s="71"/>
-      <c r="V67" s="71"/>
-      <c r="W67" s="71"/>
-      <c r="X67" s="72"/>
-      <c r="Y67" s="73" t="s">
+      <c r="T67" s="57"/>
+      <c r="U67" s="57"/>
+      <c r="V67" s="57"/>
+      <c r="W67" s="57"/>
+      <c r="X67" s="58"/>
+      <c r="Y67" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="Z67" s="74"/>
-      <c r="AA67" s="74"/>
-      <c r="AB67" s="74"/>
-      <c r="AC67" s="74"/>
-      <c r="AD67" s="74"/>
-      <c r="AE67" s="74"/>
-      <c r="AF67" s="74"/>
-      <c r="AG67" s="74"/>
-      <c r="AH67" s="74"/>
-      <c r="AI67" s="74"/>
-      <c r="AJ67" s="74"/>
-      <c r="AK67" s="74"/>
-      <c r="AL67" s="74"/>
-      <c r="AM67" s="74"/>
-      <c r="AN67" s="74"/>
-      <c r="AO67" s="74"/>
+      <c r="Z67" s="60"/>
+      <c r="AA67" s="60"/>
+      <c r="AB67" s="60"/>
+      <c r="AC67" s="60"/>
+      <c r="AD67" s="60"/>
+      <c r="AE67" s="60"/>
+      <c r="AF67" s="60"/>
+      <c r="AG67" s="60"/>
+      <c r="AH67" s="60"/>
+      <c r="AI67" s="60"/>
+      <c r="AJ67" s="60"/>
+      <c r="AK67" s="60"/>
+      <c r="AL67" s="60"/>
+      <c r="AM67" s="60"/>
+      <c r="AN67" s="60"/>
+      <c r="AO67" s="60"/>
       <c r="AP67" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ67" s="59" t="s">
+      <c r="AQ67" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR67" s="60"/>
-      <c r="AS67" s="60"/>
-      <c r="AT67" s="60"/>
-      <c r="AU67" s="60"/>
-      <c r="AV67" s="60"/>
-      <c r="AW67" s="60"/>
-      <c r="AX67" s="60"/>
-      <c r="AY67" s="61" t="s">
+      <c r="AR67" s="65"/>
+      <c r="AS67" s="65"/>
+      <c r="AT67" s="65"/>
+      <c r="AU67" s="65"/>
+      <c r="AV67" s="65"/>
+      <c r="AW67" s="65"/>
+      <c r="AX67" s="65"/>
+      <c r="AY67" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ67" s="62"/>
-      <c r="BA67" s="62"/>
-      <c r="BB67" s="62"/>
-      <c r="BC67" s="62"/>
-      <c r="BD67" s="62"/>
-      <c r="BE67" s="62"/>
-      <c r="BF67" s="63" t="s">
+      <c r="AZ67" s="67"/>
+      <c r="BA67" s="67"/>
+      <c r="BB67" s="67"/>
+      <c r="BC67" s="67"/>
+      <c r="BD67" s="67"/>
+      <c r="BE67" s="67"/>
+      <c r="BF67" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="BG67" s="63"/>
-      <c r="BH67" s="63"/>
-      <c r="BI67" s="63"/>
-      <c r="BJ67" s="63"/>
-      <c r="BK67" s="63"/>
-      <c r="BL67" s="63"/>
-      <c r="BM67" s="63"/>
-      <c r="BN67" s="63"/>
-      <c r="BO67" s="64"/>
-      <c r="BP67" s="65" t="s">
+      <c r="BG67" s="73"/>
+      <c r="BH67" s="73"/>
+      <c r="BI67" s="73"/>
+      <c r="BJ67" s="73"/>
+      <c r="BK67" s="73"/>
+      <c r="BL67" s="73"/>
+      <c r="BM67" s="73"/>
+      <c r="BN67" s="73"/>
+      <c r="BO67" s="74"/>
+      <c r="BP67" s="183" t="s">
         <v>200</v>
       </c>
-      <c r="BQ67" s="63"/>
-      <c r="BR67" s="63"/>
-      <c r="BS67" s="63"/>
-      <c r="BT67" s="63"/>
-      <c r="BU67" s="63"/>
-      <c r="BV67" s="63"/>
-      <c r="BW67" s="63"/>
-      <c r="BX67" s="63"/>
-      <c r="BY67" s="63"/>
-      <c r="BZ67" s="63"/>
-      <c r="CA67" s="63"/>
-      <c r="CB67" s="63"/>
-      <c r="CC67" s="63"/>
-      <c r="CD67" s="64"/>
-      <c r="CE67" s="66" t="s">
+      <c r="BQ67" s="73"/>
+      <c r="BR67" s="73"/>
+      <c r="BS67" s="73"/>
+      <c r="BT67" s="73"/>
+      <c r="BU67" s="73"/>
+      <c r="BV67" s="73"/>
+      <c r="BW67" s="73"/>
+      <c r="BX67" s="73"/>
+      <c r="BY67" s="73"/>
+      <c r="BZ67" s="73"/>
+      <c r="CA67" s="73"/>
+      <c r="CB67" s="73"/>
+      <c r="CC67" s="73"/>
+      <c r="CD67" s="74"/>
+      <c r="CE67" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF67" s="67"/>
-      <c r="CG67" s="68"/>
+      <c r="CF67" s="68"/>
+      <c r="CG67" s="69"/>
     </row>
     <row r="68" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="58"/>
-      <c r="D68" s="67" t="s">
+      <c r="C68" s="55"/>
+      <c r="D68" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="58"/>
-      <c r="F68" s="66" t="s">
+      <c r="E68" s="55"/>
+      <c r="F68" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G68" s="69" t="s">
+      <c r="G68" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H68" s="66" t="s">
+      <c r="H68" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="58">
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="55">
         <v>1</v>
       </c>
-      <c r="L68" s="58"/>
-      <c r="M68" s="58"/>
-      <c r="N68" s="58">
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55">
         <v>1</v>
       </c>
-      <c r="O68" s="58"/>
-      <c r="P68" s="58"/>
-      <c r="Q68" s="58">
+      <c r="O68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55">
         <v>3</v>
       </c>
-      <c r="R68" s="58"/>
-      <c r="S68" s="70" t="s">
+      <c r="R68" s="55"/>
+      <c r="S68" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="T68" s="71"/>
-      <c r="U68" s="71"/>
-      <c r="V68" s="71"/>
-      <c r="W68" s="71"/>
-      <c r="X68" s="72"/>
-      <c r="Y68" s="73" t="s">
+      <c r="T68" s="57"/>
+      <c r="U68" s="57"/>
+      <c r="V68" s="57"/>
+      <c r="W68" s="57"/>
+      <c r="X68" s="58"/>
+      <c r="Y68" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="Z68" s="74"/>
-      <c r="AA68" s="74"/>
-      <c r="AB68" s="74"/>
-      <c r="AC68" s="74"/>
-      <c r="AD68" s="74"/>
-      <c r="AE68" s="74"/>
-      <c r="AF68" s="74"/>
-      <c r="AG68" s="74"/>
-      <c r="AH68" s="74"/>
-      <c r="AI68" s="74"/>
-      <c r="AJ68" s="74"/>
-      <c r="AK68" s="74"/>
-      <c r="AL68" s="74"/>
-      <c r="AM68" s="74"/>
-      <c r="AN68" s="74"/>
-      <c r="AO68" s="74"/>
+      <c r="Z68" s="60"/>
+      <c r="AA68" s="60"/>
+      <c r="AB68" s="60"/>
+      <c r="AC68" s="60"/>
+      <c r="AD68" s="60"/>
+      <c r="AE68" s="60"/>
+      <c r="AF68" s="60"/>
+      <c r="AG68" s="60"/>
+      <c r="AH68" s="60"/>
+      <c r="AI68" s="60"/>
+      <c r="AJ68" s="60"/>
+      <c r="AK68" s="60"/>
+      <c r="AL68" s="60"/>
+      <c r="AM68" s="60"/>
+      <c r="AN68" s="60"/>
+      <c r="AO68" s="60"/>
       <c r="AP68" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ68" s="59" t="s">
+      <c r="AQ68" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR68" s="60"/>
-      <c r="AS68" s="60"/>
-      <c r="AT68" s="60"/>
-      <c r="AU68" s="60"/>
-      <c r="AV68" s="60"/>
-      <c r="AW68" s="60"/>
-      <c r="AX68" s="60"/>
-      <c r="AY68" s="61" t="s">
+      <c r="AR68" s="65"/>
+      <c r="AS68" s="65"/>
+      <c r="AT68" s="65"/>
+      <c r="AU68" s="65"/>
+      <c r="AV68" s="65"/>
+      <c r="AW68" s="65"/>
+      <c r="AX68" s="65"/>
+      <c r="AY68" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ68" s="62"/>
-      <c r="BA68" s="62"/>
-      <c r="BB68" s="62"/>
-      <c r="BC68" s="62"/>
-      <c r="BD68" s="62"/>
-      <c r="BE68" s="62"/>
-      <c r="BF68" s="63" t="s">
+      <c r="AZ68" s="67"/>
+      <c r="BA68" s="67"/>
+      <c r="BB68" s="67"/>
+      <c r="BC68" s="67"/>
+      <c r="BD68" s="67"/>
+      <c r="BE68" s="67"/>
+      <c r="BF68" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="BG68" s="63"/>
-      <c r="BH68" s="63"/>
-      <c r="BI68" s="63"/>
-      <c r="BJ68" s="63"/>
-      <c r="BK68" s="63"/>
-      <c r="BL68" s="63"/>
-      <c r="BM68" s="63"/>
-      <c r="BN68" s="63"/>
-      <c r="BO68" s="64"/>
-      <c r="BP68" s="65" t="s">
+      <c r="BG68" s="73"/>
+      <c r="BH68" s="73"/>
+      <c r="BI68" s="73"/>
+      <c r="BJ68" s="73"/>
+      <c r="BK68" s="73"/>
+      <c r="BL68" s="73"/>
+      <c r="BM68" s="73"/>
+      <c r="BN68" s="73"/>
+      <c r="BO68" s="74"/>
+      <c r="BP68" s="183" t="s">
         <v>204</v>
       </c>
-      <c r="BQ68" s="63"/>
-      <c r="BR68" s="63"/>
-      <c r="BS68" s="63"/>
-      <c r="BT68" s="63"/>
-      <c r="BU68" s="63"/>
-      <c r="BV68" s="63"/>
-      <c r="BW68" s="63"/>
-      <c r="BX68" s="63"/>
-      <c r="BY68" s="63"/>
-      <c r="BZ68" s="63"/>
-      <c r="CA68" s="63"/>
-      <c r="CB68" s="63"/>
-      <c r="CC68" s="63"/>
-      <c r="CD68" s="64"/>
-      <c r="CE68" s="66" t="s">
+      <c r="BQ68" s="73"/>
+      <c r="BR68" s="73"/>
+      <c r="BS68" s="73"/>
+      <c r="BT68" s="73"/>
+      <c r="BU68" s="73"/>
+      <c r="BV68" s="73"/>
+      <c r="BW68" s="73"/>
+      <c r="BX68" s="73"/>
+      <c r="BY68" s="73"/>
+      <c r="BZ68" s="73"/>
+      <c r="CA68" s="73"/>
+      <c r="CB68" s="73"/>
+      <c r="CC68" s="73"/>
+      <c r="CD68" s="74"/>
+      <c r="CE68" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF68" s="67"/>
-      <c r="CG68" s="68"/>
+      <c r="CF68" s="68"/>
+      <c r="CG68" s="69"/>
     </row>
     <row r="69" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="67" t="s">
+      <c r="C69" s="55"/>
+      <c r="D69" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="58"/>
-      <c r="F69" s="66" t="s">
+      <c r="E69" s="55"/>
+      <c r="F69" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G69" s="69" t="s">
+      <c r="G69" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H69" s="66" t="s">
+      <c r="H69" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="58">
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="55">
         <v>1</v>
       </c>
-      <c r="L69" s="58"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58">
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55">
         <v>1</v>
       </c>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="58">
+      <c r="O69" s="55"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55">
         <v>3</v>
       </c>
-      <c r="R69" s="58"/>
-      <c r="S69" s="70" t="s">
+      <c r="R69" s="55"/>
+      <c r="S69" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="T69" s="71"/>
-      <c r="U69" s="71"/>
-      <c r="V69" s="71"/>
-      <c r="W69" s="71"/>
-      <c r="X69" s="72"/>
-      <c r="Y69" s="73" t="s">
+      <c r="T69" s="57"/>
+      <c r="U69" s="57"/>
+      <c r="V69" s="57"/>
+      <c r="W69" s="57"/>
+      <c r="X69" s="58"/>
+      <c r="Y69" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="Z69" s="74"/>
-      <c r="AA69" s="74"/>
-      <c r="AB69" s="74"/>
-      <c r="AC69" s="74"/>
-      <c r="AD69" s="74"/>
-      <c r="AE69" s="74"/>
-      <c r="AF69" s="74"/>
-      <c r="AG69" s="74"/>
-      <c r="AH69" s="74"/>
-      <c r="AI69" s="74"/>
-      <c r="AJ69" s="74"/>
-      <c r="AK69" s="74"/>
-      <c r="AL69" s="74"/>
-      <c r="AM69" s="74"/>
-      <c r="AN69" s="74"/>
-      <c r="AO69" s="74"/>
+      <c r="Z69" s="60"/>
+      <c r="AA69" s="60"/>
+      <c r="AB69" s="60"/>
+      <c r="AC69" s="60"/>
+      <c r="AD69" s="60"/>
+      <c r="AE69" s="60"/>
+      <c r="AF69" s="60"/>
+      <c r="AG69" s="60"/>
+      <c r="AH69" s="60"/>
+      <c r="AI69" s="60"/>
+      <c r="AJ69" s="60"/>
+      <c r="AK69" s="60"/>
+      <c r="AL69" s="60"/>
+      <c r="AM69" s="60"/>
+      <c r="AN69" s="60"/>
+      <c r="AO69" s="60"/>
       <c r="AP69" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ69" s="59" t="s">
+      <c r="AQ69" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR69" s="60"/>
-      <c r="AS69" s="60"/>
-      <c r="AT69" s="60"/>
-      <c r="AU69" s="60"/>
-      <c r="AV69" s="60"/>
-      <c r="AW69" s="60"/>
-      <c r="AX69" s="60"/>
-      <c r="AY69" s="61" t="s">
+      <c r="AR69" s="65"/>
+      <c r="AS69" s="65"/>
+      <c r="AT69" s="65"/>
+      <c r="AU69" s="65"/>
+      <c r="AV69" s="65"/>
+      <c r="AW69" s="65"/>
+      <c r="AX69" s="65"/>
+      <c r="AY69" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ69" s="62"/>
-      <c r="BA69" s="62"/>
-      <c r="BB69" s="62"/>
-      <c r="BC69" s="62"/>
-      <c r="BD69" s="62"/>
-      <c r="BE69" s="62"/>
-      <c r="BF69" s="63" t="s">
+      <c r="AZ69" s="67"/>
+      <c r="BA69" s="67"/>
+      <c r="BB69" s="67"/>
+      <c r="BC69" s="67"/>
+      <c r="BD69" s="67"/>
+      <c r="BE69" s="67"/>
+      <c r="BF69" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="BG69" s="63"/>
-      <c r="BH69" s="63"/>
-      <c r="BI69" s="63"/>
-      <c r="BJ69" s="63"/>
-      <c r="BK69" s="63"/>
-      <c r="BL69" s="63"/>
-      <c r="BM69" s="63"/>
-      <c r="BN69" s="63"/>
-      <c r="BO69" s="64"/>
-      <c r="BP69" s="65" t="s">
+      <c r="BG69" s="73"/>
+      <c r="BH69" s="73"/>
+      <c r="BI69" s="73"/>
+      <c r="BJ69" s="73"/>
+      <c r="BK69" s="73"/>
+      <c r="BL69" s="73"/>
+      <c r="BM69" s="73"/>
+      <c r="BN69" s="73"/>
+      <c r="BO69" s="74"/>
+      <c r="BP69" s="183" t="s">
         <v>204</v>
       </c>
-      <c r="BQ69" s="63"/>
-      <c r="BR69" s="63"/>
-      <c r="BS69" s="63"/>
-      <c r="BT69" s="63"/>
-      <c r="BU69" s="63"/>
-      <c r="BV69" s="63"/>
-      <c r="BW69" s="63"/>
-      <c r="BX69" s="63"/>
-      <c r="BY69" s="63"/>
-      <c r="BZ69" s="63"/>
-      <c r="CA69" s="63"/>
-      <c r="CB69" s="63"/>
-      <c r="CC69" s="63"/>
-      <c r="CD69" s="64"/>
-      <c r="CE69" s="66" t="s">
+      <c r="BQ69" s="73"/>
+      <c r="BR69" s="73"/>
+      <c r="BS69" s="73"/>
+      <c r="BT69" s="73"/>
+      <c r="BU69" s="73"/>
+      <c r="BV69" s="73"/>
+      <c r="BW69" s="73"/>
+      <c r="BX69" s="73"/>
+      <c r="BY69" s="73"/>
+      <c r="BZ69" s="73"/>
+      <c r="CA69" s="73"/>
+      <c r="CB69" s="73"/>
+      <c r="CC69" s="73"/>
+      <c r="CD69" s="74"/>
+      <c r="CE69" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF69" s="67"/>
-      <c r="CG69" s="68"/>
+      <c r="CF69" s="68"/>
+      <c r="CG69" s="69"/>
     </row>
     <row r="70" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="57" t="s">
+      <c r="C70" s="55"/>
+      <c r="D70" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="66" t="s">
+      <c r="E70" s="55"/>
+      <c r="F70" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G70" s="69" t="s">
+      <c r="G70" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H70" s="66" t="s">
+      <c r="H70" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I70" s="69"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="58">
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="55">
         <v>1</v>
       </c>
-      <c r="L70" s="58"/>
-      <c r="M70" s="58"/>
-      <c r="N70" s="58">
+      <c r="L70" s="55"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="55">
         <v>1</v>
       </c>
-      <c r="O70" s="58"/>
-      <c r="P70" s="58"/>
-      <c r="Q70" s="58">
+      <c r="O70" s="55"/>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="55">
         <v>3</v>
       </c>
-      <c r="R70" s="58"/>
-      <c r="S70" s="70" t="s">
+      <c r="R70" s="55"/>
+      <c r="S70" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="T70" s="71"/>
-      <c r="U70" s="71"/>
-      <c r="V70" s="71"/>
-      <c r="W70" s="71"/>
-      <c r="X70" s="72"/>
-      <c r="Y70" s="73" t="s">
+      <c r="T70" s="57"/>
+      <c r="U70" s="57"/>
+      <c r="V70" s="57"/>
+      <c r="W70" s="57"/>
+      <c r="X70" s="58"/>
+      <c r="Y70" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="Z70" s="74"/>
-      <c r="AA70" s="74"/>
-      <c r="AB70" s="74"/>
-      <c r="AC70" s="74"/>
-      <c r="AD70" s="74"/>
-      <c r="AE70" s="74"/>
-      <c r="AF70" s="74"/>
-      <c r="AG70" s="74"/>
-      <c r="AH70" s="74"/>
-      <c r="AI70" s="74"/>
-      <c r="AJ70" s="74"/>
-      <c r="AK70" s="74"/>
-      <c r="AL70" s="74"/>
-      <c r="AM70" s="74"/>
-      <c r="AN70" s="74"/>
-      <c r="AO70" s="74"/>
+      <c r="Z70" s="60"/>
+      <c r="AA70" s="60"/>
+      <c r="AB70" s="60"/>
+      <c r="AC70" s="60"/>
+      <c r="AD70" s="60"/>
+      <c r="AE70" s="60"/>
+      <c r="AF70" s="60"/>
+      <c r="AG70" s="60"/>
+      <c r="AH70" s="60"/>
+      <c r="AI70" s="60"/>
+      <c r="AJ70" s="60"/>
+      <c r="AK70" s="60"/>
+      <c r="AL70" s="60"/>
+      <c r="AM70" s="60"/>
+      <c r="AN70" s="60"/>
+      <c r="AO70" s="60"/>
       <c r="AP70" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="AQ70" s="59" t="s">
+      <c r="AQ70" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR70" s="60"/>
-      <c r="AS70" s="60"/>
-      <c r="AT70" s="60"/>
-      <c r="AU70" s="60"/>
-      <c r="AV70" s="60"/>
-      <c r="AW70" s="60"/>
-      <c r="AX70" s="60"/>
-      <c r="AY70" s="61" t="s">
+      <c r="AR70" s="65"/>
+      <c r="AS70" s="65"/>
+      <c r="AT70" s="65"/>
+      <c r="AU70" s="65"/>
+      <c r="AV70" s="65"/>
+      <c r="AW70" s="65"/>
+      <c r="AX70" s="65"/>
+      <c r="AY70" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ70" s="62"/>
-      <c r="BA70" s="62"/>
-      <c r="BB70" s="62"/>
-      <c r="BC70" s="62"/>
-      <c r="BD70" s="62"/>
-      <c r="BE70" s="62"/>
-      <c r="BF70" s="63" t="s">
+      <c r="AZ70" s="67"/>
+      <c r="BA70" s="67"/>
+      <c r="BB70" s="67"/>
+      <c r="BC70" s="67"/>
+      <c r="BD70" s="67"/>
+      <c r="BE70" s="67"/>
+      <c r="BF70" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="BG70" s="63"/>
-      <c r="BH70" s="63"/>
-      <c r="BI70" s="63"/>
-      <c r="BJ70" s="63"/>
-      <c r="BK70" s="63"/>
-      <c r="BL70" s="63"/>
-      <c r="BM70" s="63"/>
-      <c r="BN70" s="63"/>
-      <c r="BO70" s="64"/>
-      <c r="BP70" s="65" t="s">
+      <c r="BG70" s="73"/>
+      <c r="BH70" s="73"/>
+      <c r="BI70" s="73"/>
+      <c r="BJ70" s="73"/>
+      <c r="BK70" s="73"/>
+      <c r="BL70" s="73"/>
+      <c r="BM70" s="73"/>
+      <c r="BN70" s="73"/>
+      <c r="BO70" s="74"/>
+      <c r="BP70" s="183" t="s">
         <v>210</v>
       </c>
-      <c r="BQ70" s="63"/>
-      <c r="BR70" s="63"/>
-      <c r="BS70" s="63"/>
-      <c r="BT70" s="63"/>
-      <c r="BU70" s="63"/>
-      <c r="BV70" s="63"/>
-      <c r="BW70" s="63"/>
-      <c r="BX70" s="63"/>
-      <c r="BY70" s="63"/>
-      <c r="BZ70" s="63"/>
-      <c r="CA70" s="63"/>
-      <c r="CB70" s="63"/>
-      <c r="CC70" s="63"/>
-      <c r="CD70" s="64"/>
-      <c r="CE70" s="66" t="s">
+      <c r="BQ70" s="73"/>
+      <c r="BR70" s="73"/>
+      <c r="BS70" s="73"/>
+      <c r="BT70" s="73"/>
+      <c r="BU70" s="73"/>
+      <c r="BV70" s="73"/>
+      <c r="BW70" s="73"/>
+      <c r="BX70" s="73"/>
+      <c r="BY70" s="73"/>
+      <c r="BZ70" s="73"/>
+      <c r="CA70" s="73"/>
+      <c r="CB70" s="73"/>
+      <c r="CC70" s="73"/>
+      <c r="CD70" s="74"/>
+      <c r="CE70" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF70" s="67"/>
-      <c r="CG70" s="68"/>
+      <c r="CF70" s="68"/>
+      <c r="CG70" s="69"/>
     </row>
     <row r="71" spans="2:85" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="67" t="s">
+      <c r="C71" s="55"/>
+      <c r="D71" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="58"/>
-      <c r="F71" s="66" t="s">
+      <c r="E71" s="55"/>
+      <c r="F71" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G71" s="69" t="s">
+      <c r="G71" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H71" s="66" t="s">
+      <c r="H71" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I71" s="69"/>
-      <c r="J71" s="69"/>
-      <c r="K71" s="58">
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="55">
         <v>1</v>
       </c>
-      <c r="L71" s="58"/>
-      <c r="M71" s="58"/>
-      <c r="N71" s="58">
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55">
         <v>1</v>
       </c>
-      <c r="O71" s="58"/>
-      <c r="P71" s="58"/>
-      <c r="Q71" s="58">
+      <c r="O71" s="55"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55">
         <v>3</v>
       </c>
-      <c r="R71" s="58"/>
-      <c r="S71" s="70" t="s">
+      <c r="R71" s="55"/>
+      <c r="S71" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
-      <c r="V71" s="71"/>
-      <c r="W71" s="71"/>
-      <c r="X71" s="72"/>
-      <c r="Y71" s="73" t="s">
+      <c r="T71" s="57"/>
+      <c r="U71" s="57"/>
+      <c r="V71" s="57"/>
+      <c r="W71" s="57"/>
+      <c r="X71" s="58"/>
+      <c r="Y71" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="Z71" s="74"/>
-      <c r="AA71" s="74"/>
-      <c r="AB71" s="74"/>
-      <c r="AC71" s="74"/>
-      <c r="AD71" s="74"/>
-      <c r="AE71" s="74"/>
-      <c r="AF71" s="74"/>
-      <c r="AG71" s="74"/>
-      <c r="AH71" s="74"/>
-      <c r="AI71" s="74"/>
-      <c r="AJ71" s="74"/>
-      <c r="AK71" s="74"/>
-      <c r="AL71" s="74"/>
-      <c r="AM71" s="74"/>
-      <c r="AN71" s="74"/>
-      <c r="AO71" s="74"/>
+      <c r="Z71" s="60"/>
+      <c r="AA71" s="60"/>
+      <c r="AB71" s="60"/>
+      <c r="AC71" s="60"/>
+      <c r="AD71" s="60"/>
+      <c r="AE71" s="60"/>
+      <c r="AF71" s="60"/>
+      <c r="AG71" s="60"/>
+      <c r="AH71" s="60"/>
+      <c r="AI71" s="60"/>
+      <c r="AJ71" s="60"/>
+      <c r="AK71" s="60"/>
+      <c r="AL71" s="60"/>
+      <c r="AM71" s="60"/>
+      <c r="AN71" s="60"/>
+      <c r="AO71" s="60"/>
       <c r="AP71" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AQ71" s="59" t="s">
+      <c r="AQ71" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AR71" s="60"/>
-      <c r="AS71" s="60"/>
-      <c r="AT71" s="60"/>
-      <c r="AU71" s="60"/>
-      <c r="AV71" s="60"/>
-      <c r="AW71" s="60"/>
-      <c r="AX71" s="60"/>
-      <c r="AY71" s="61" t="s">
+      <c r="AR71" s="65"/>
+      <c r="AS71" s="65"/>
+      <c r="AT71" s="65"/>
+      <c r="AU71" s="65"/>
+      <c r="AV71" s="65"/>
+      <c r="AW71" s="65"/>
+      <c r="AX71" s="65"/>
+      <c r="AY71" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AZ71" s="62"/>
-      <c r="BA71" s="62"/>
-      <c r="BB71" s="62"/>
-      <c r="BC71" s="62"/>
-      <c r="BD71" s="62"/>
-      <c r="BE71" s="62"/>
-      <c r="BF71" s="63" t="s">
+      <c r="AZ71" s="67"/>
+      <c r="BA71" s="67"/>
+      <c r="BB71" s="67"/>
+      <c r="BC71" s="67"/>
+      <c r="BD71" s="67"/>
+      <c r="BE71" s="67"/>
+      <c r="BF71" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="BG71" s="63"/>
-      <c r="BH71" s="63"/>
-      <c r="BI71" s="63"/>
-      <c r="BJ71" s="63"/>
-      <c r="BK71" s="63"/>
-      <c r="BL71" s="63"/>
-      <c r="BM71" s="63"/>
-      <c r="BN71" s="63"/>
-      <c r="BO71" s="64"/>
-      <c r="BP71" s="65" t="s">
+      <c r="BG71" s="73"/>
+      <c r="BH71" s="73"/>
+      <c r="BI71" s="73"/>
+      <c r="BJ71" s="73"/>
+      <c r="BK71" s="73"/>
+      <c r="BL71" s="73"/>
+      <c r="BM71" s="73"/>
+      <c r="BN71" s="73"/>
+      <c r="BO71" s="74"/>
+      <c r="BP71" s="183" t="s">
         <v>210</v>
       </c>
-      <c r="BQ71" s="63"/>
-      <c r="BR71" s="63"/>
-      <c r="BS71" s="63"/>
-      <c r="BT71" s="63"/>
-      <c r="BU71" s="63"/>
-      <c r="BV71" s="63"/>
-      <c r="BW71" s="63"/>
-      <c r="BX71" s="63"/>
-      <c r="BY71" s="63"/>
-      <c r="BZ71" s="63"/>
-      <c r="CA71" s="63"/>
-      <c r="CB71" s="63"/>
-      <c r="CC71" s="63"/>
-      <c r="CD71" s="64"/>
-      <c r="CE71" s="66" t="s">
+      <c r="BQ71" s="73"/>
+      <c r="BR71" s="73"/>
+      <c r="BS71" s="73"/>
+      <c r="BT71" s="73"/>
+      <c r="BU71" s="73"/>
+      <c r="BV71" s="73"/>
+      <c r="BW71" s="73"/>
+      <c r="BX71" s="73"/>
+      <c r="BY71" s="73"/>
+      <c r="BZ71" s="73"/>
+      <c r="CA71" s="73"/>
+      <c r="CB71" s="73"/>
+      <c r="CC71" s="73"/>
+      <c r="CD71" s="74"/>
+      <c r="CE71" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="CF71" s="67"/>
-      <c r="CG71" s="68"/>
+      <c r="CF71" s="68"/>
+      <c r="CG71" s="69"/>
     </row>
     <row r="72" spans="2:85" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="21"/>
@@ -23150,21 +23150,21 @@
       <c r="AP94" s="5"/>
     </row>
     <row r="95" spans="2:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="77"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="77"/>
-      <c r="I95" s="77"/>
-      <c r="J95" s="77"/>
-      <c r="K95" s="77"/>
-      <c r="L95" s="77"/>
-      <c r="M95" s="77"/>
-      <c r="N95" s="77"/>
-      <c r="O95" s="77"/>
-      <c r="P95" s="77"/>
+      <c r="B95" s="178"/>
+      <c r="C95" s="178"/>
+      <c r="D95" s="178"/>
+      <c r="E95" s="178"/>
+      <c r="F95" s="178"/>
+      <c r="G95" s="178"/>
+      <c r="H95" s="178"/>
+      <c r="I95" s="178"/>
+      <c r="J95" s="178"/>
+      <c r="K95" s="178"/>
+      <c r="L95" s="178"/>
+      <c r="M95" s="178"/>
+      <c r="N95" s="178"/>
+      <c r="O95" s="178"/>
+      <c r="P95" s="178"/>
       <c r="Z95" s="10" t="s">
         <v>25</v>
       </c>
@@ -23197,18 +23197,18 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="78"/>
-      <c r="H97" s="78"/>
-      <c r="I97" s="78"/>
-      <c r="J97" s="78"/>
-      <c r="K97" s="78"/>
-      <c r="L97" s="78"/>
-      <c r="M97" s="78"/>
-      <c r="N97" s="78"/>
-      <c r="O97" s="78"/>
-      <c r="P97" s="78"/>
-      <c r="Q97" s="78"/>
+      <c r="F97" s="179"/>
+      <c r="G97" s="179"/>
+      <c r="H97" s="179"/>
+      <c r="I97" s="179"/>
+      <c r="J97" s="179"/>
+      <c r="K97" s="179"/>
+      <c r="L97" s="179"/>
+      <c r="M97" s="179"/>
+      <c r="N97" s="179"/>
+      <c r="O97" s="179"/>
+      <c r="P97" s="179"/>
+      <c r="Q97" s="179"/>
       <c r="AK97" t="s">
         <v>105</v>
       </c>
@@ -23249,13 +23249,403 @@
       <c r="AM98" s="20">
         <v>8</v>
       </c>
-      <c r="AO98" s="55">
+      <c r="AO98" s="184">
         <v>2024</v>
       </c>
-      <c r="AP98" s="56"/>
+      <c r="AP98" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="414">
+    <mergeCell ref="AO98:AP98"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="AQ69:AX69"/>
+    <mergeCell ref="AY69:BE69"/>
+    <mergeCell ref="BF69:BO69"/>
+    <mergeCell ref="BP69:CD69"/>
+    <mergeCell ref="CE69:CG69"/>
+    <mergeCell ref="AQ70:AX70"/>
+    <mergeCell ref="AY70:BE70"/>
+    <mergeCell ref="BF70:BO70"/>
+    <mergeCell ref="BP70:CD70"/>
+    <mergeCell ref="CE70:CG70"/>
+    <mergeCell ref="AQ71:AX71"/>
+    <mergeCell ref="AY71:BE71"/>
+    <mergeCell ref="BF71:BO71"/>
+    <mergeCell ref="BP71:CD71"/>
+    <mergeCell ref="CE71:CG71"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:X69"/>
+    <mergeCell ref="Y69:AO69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S70:X70"/>
+    <mergeCell ref="Y70:AO70"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="BF66:BO66"/>
+    <mergeCell ref="BP66:CD66"/>
+    <mergeCell ref="CE66:CG66"/>
+    <mergeCell ref="AQ67:AX67"/>
+    <mergeCell ref="AY67:BE67"/>
+    <mergeCell ref="BF67:BO67"/>
+    <mergeCell ref="BP67:CD67"/>
+    <mergeCell ref="CE67:CG67"/>
+    <mergeCell ref="AQ68:AX68"/>
+    <mergeCell ref="AY68:BE68"/>
+    <mergeCell ref="BF68:BO68"/>
+    <mergeCell ref="BP68:CD68"/>
+    <mergeCell ref="CE68:CG68"/>
+    <mergeCell ref="AY66:BE66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:X66"/>
+    <mergeCell ref="Y66:AO66"/>
+    <mergeCell ref="AQ66:AX66"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S64:X64"/>
+    <mergeCell ref="Y64:AO64"/>
+    <mergeCell ref="BF61:BO61"/>
+    <mergeCell ref="BP61:CD61"/>
+    <mergeCell ref="CE61:CG61"/>
+    <mergeCell ref="AQ62:AX62"/>
+    <mergeCell ref="AY62:BE62"/>
+    <mergeCell ref="BF62:BO62"/>
+    <mergeCell ref="BP62:CD62"/>
+    <mergeCell ref="CE62:CG62"/>
+    <mergeCell ref="AQ64:AX64"/>
+    <mergeCell ref="AY64:BE64"/>
+    <mergeCell ref="BF64:BO64"/>
+    <mergeCell ref="BP64:CD64"/>
+    <mergeCell ref="CE64:CG64"/>
+    <mergeCell ref="AQ63:AX63"/>
+    <mergeCell ref="BF63:BO63"/>
+    <mergeCell ref="BP63:CD63"/>
+    <mergeCell ref="CE63:CG63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:X62"/>
+    <mergeCell ref="Y62:AO62"/>
+    <mergeCell ref="B95:P95"/>
+    <mergeCell ref="F97:Q97"/>
+    <mergeCell ref="CE46:CG46"/>
+    <mergeCell ref="CE58:CG58"/>
+    <mergeCell ref="BP58:CD58"/>
+    <mergeCell ref="Y58:AO58"/>
+    <mergeCell ref="S58:X58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:X50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="AY54:BE54"/>
+    <mergeCell ref="CE49:CG49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AO53"/>
+    <mergeCell ref="AQ53:AX53"/>
+    <mergeCell ref="AY53:BE53"/>
+    <mergeCell ref="BF53:BO53"/>
+    <mergeCell ref="BP53:CD53"/>
+    <mergeCell ref="CE53:CG53"/>
+    <mergeCell ref="BF51:BO51"/>
+    <mergeCell ref="BP51:CD51"/>
+    <mergeCell ref="CE51:CG51"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="CE52:CG52"/>
+    <mergeCell ref="AQ48:AX48"/>
+    <mergeCell ref="AY48:BE48"/>
+    <mergeCell ref="BF48:BO48"/>
+    <mergeCell ref="BP48:CD48"/>
+    <mergeCell ref="AQ49:AX49"/>
+    <mergeCell ref="AY49:BE49"/>
+    <mergeCell ref="BF49:BO49"/>
+    <mergeCell ref="BP49:CD49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="Y49:AO49"/>
+    <mergeCell ref="CE47:CG47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:X47"/>
+    <mergeCell ref="Y47:AO47"/>
+    <mergeCell ref="AQ47:AX47"/>
+    <mergeCell ref="AY47:BE47"/>
+    <mergeCell ref="CE48:CG48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="BF47:BO47"/>
+    <mergeCell ref="BP47:CD47"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="Y48:AO48"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:AO31"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="BF52:BO52"/>
+    <mergeCell ref="BP52:CD52"/>
+    <mergeCell ref="AQ54:AX54"/>
+    <mergeCell ref="BF55:BO55"/>
+    <mergeCell ref="BP55:CD55"/>
+    <mergeCell ref="BF50:BO50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="Y51:AO51"/>
+    <mergeCell ref="Y50:AO50"/>
+    <mergeCell ref="AQ50:AX50"/>
+    <mergeCell ref="AY50:BE50"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:X54"/>
+    <mergeCell ref="Y54:AO54"/>
+    <mergeCell ref="Y52:AO52"/>
+    <mergeCell ref="CE50:CG50"/>
+    <mergeCell ref="AQ51:AX51"/>
+    <mergeCell ref="AY51:BE51"/>
+    <mergeCell ref="H18:AO18"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="CE55:CG55"/>
+    <mergeCell ref="S52:X52"/>
+    <mergeCell ref="BF54:BO54"/>
+    <mergeCell ref="BP54:CD54"/>
+    <mergeCell ref="CE54:CG54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:X55"/>
+    <mergeCell ref="Y55:AO55"/>
+    <mergeCell ref="AQ55:AX55"/>
+    <mergeCell ref="AY55:BE55"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="BP50:CD50"/>
+    <mergeCell ref="AQ52:AX52"/>
+    <mergeCell ref="AY52:BE52"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H3:AO4"/>
+    <mergeCell ref="G7:AO7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:AE8"/>
+    <mergeCell ref="AF8:AO8"/>
+    <mergeCell ref="F28:AO28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:AO29"/>
+    <mergeCell ref="J22:AI22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:AO27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="K10:AE10"/>
+    <mergeCell ref="AF10:AO10"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:AO19"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:AO16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:AO17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="AF11:AO11"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:AO32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:AE9"/>
+    <mergeCell ref="AF9:AO9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F30:AO30"/>
+    <mergeCell ref="H15:AO15"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:AE11"/>
+    <mergeCell ref="CE56:CG56"/>
+    <mergeCell ref="BP57:CD57"/>
+    <mergeCell ref="CE57:CG57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="AQ57:AX57"/>
+    <mergeCell ref="AY57:BE57"/>
+    <mergeCell ref="BF57:BO57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="Y57:AO57"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:X56"/>
+    <mergeCell ref="Y56:AO56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AQ58:AX58"/>
+    <mergeCell ref="AY58:BE58"/>
+    <mergeCell ref="BF58:BO58"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="AQ56:AX56"/>
+    <mergeCell ref="AY56:BE56"/>
+    <mergeCell ref="BF56:BO56"/>
+    <mergeCell ref="BP56:CD56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="BP59:CD59"/>
+    <mergeCell ref="CE59:CG59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:X59"/>
+    <mergeCell ref="Y59:AO59"/>
+    <mergeCell ref="AQ59:AX59"/>
+    <mergeCell ref="AY59:BE59"/>
+    <mergeCell ref="BF59:BO59"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:X71"/>
+    <mergeCell ref="Y71:AO71"/>
+    <mergeCell ref="BF65:BO65"/>
+    <mergeCell ref="CE65:CG65"/>
+    <mergeCell ref="BP65:CD65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:X61"/>
+    <mergeCell ref="Y61:AO61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:X63"/>
+    <mergeCell ref="Y63:AO63"/>
+    <mergeCell ref="CE60:CG60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:X60"/>
+    <mergeCell ref="Y60:AO60"/>
     <mergeCell ref="N68:P68"/>
     <mergeCell ref="Q68:R68"/>
     <mergeCell ref="S68:X68"/>
@@ -23280,396 +23670,6 @@
     <mergeCell ref="Y67:AO67"/>
     <mergeCell ref="BF60:BO60"/>
     <mergeCell ref="BP60:CD60"/>
-    <mergeCell ref="CE60:CG60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:X60"/>
-    <mergeCell ref="Y60:AO60"/>
-    <mergeCell ref="BF65:BO65"/>
-    <mergeCell ref="CE65:CG65"/>
-    <mergeCell ref="BP65:CD65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="S71:X71"/>
-    <mergeCell ref="Y71:AO71"/>
-    <mergeCell ref="BP59:CD59"/>
-    <mergeCell ref="CE59:CG59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:X59"/>
-    <mergeCell ref="Y59:AO59"/>
-    <mergeCell ref="AQ59:AX59"/>
-    <mergeCell ref="AY59:BE59"/>
-    <mergeCell ref="BF59:BO59"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AQ58:AX58"/>
-    <mergeCell ref="AY58:BE58"/>
-    <mergeCell ref="BF58:BO58"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="AQ56:AX56"/>
-    <mergeCell ref="AY56:BE56"/>
-    <mergeCell ref="BF56:BO56"/>
-    <mergeCell ref="BP56:CD56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="CE56:CG56"/>
-    <mergeCell ref="BP57:CD57"/>
-    <mergeCell ref="CE57:CG57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="AQ57:AX57"/>
-    <mergeCell ref="AY57:BE57"/>
-    <mergeCell ref="BF57:BO57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="Y57:AO57"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:X56"/>
-    <mergeCell ref="Y56:AO56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:AO32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:AE9"/>
-    <mergeCell ref="AF9:AO9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F30:AO30"/>
-    <mergeCell ref="H15:AO15"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:AE11"/>
-    <mergeCell ref="H3:AO4"/>
-    <mergeCell ref="G7:AO7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:AE8"/>
-    <mergeCell ref="AF8:AO8"/>
-    <mergeCell ref="F28:AO28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:AO29"/>
-    <mergeCell ref="J22:AI22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:AO27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="K10:AE10"/>
-    <mergeCell ref="AF10:AO10"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:AO19"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:AO16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:AO17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="AF11:AO11"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="CE50:CG50"/>
-    <mergeCell ref="AQ51:AX51"/>
-    <mergeCell ref="AY51:BE51"/>
-    <mergeCell ref="H18:AO18"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="CE55:CG55"/>
-    <mergeCell ref="S52:X52"/>
-    <mergeCell ref="BF54:BO54"/>
-    <mergeCell ref="BP54:CD54"/>
-    <mergeCell ref="CE54:CG54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:X55"/>
-    <mergeCell ref="Y55:AO55"/>
-    <mergeCell ref="AQ55:AX55"/>
-    <mergeCell ref="AY55:BE55"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="BP50:CD50"/>
-    <mergeCell ref="AQ52:AX52"/>
-    <mergeCell ref="AY52:BE52"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="BF52:BO52"/>
-    <mergeCell ref="BP52:CD52"/>
-    <mergeCell ref="AQ54:AX54"/>
-    <mergeCell ref="BF55:BO55"/>
-    <mergeCell ref="BP55:CD55"/>
-    <mergeCell ref="BF50:BO50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="Y51:AO51"/>
-    <mergeCell ref="Y50:AO50"/>
-    <mergeCell ref="AQ50:AX50"/>
-    <mergeCell ref="AY50:BE50"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:X54"/>
-    <mergeCell ref="Y54:AO54"/>
-    <mergeCell ref="Y52:AO52"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:AO31"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="CE47:CG47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:X47"/>
-    <mergeCell ref="Y47:AO47"/>
-    <mergeCell ref="AQ47:AX47"/>
-    <mergeCell ref="AY47:BE47"/>
-    <mergeCell ref="CE48:CG48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="BF47:BO47"/>
-    <mergeCell ref="BP47:CD47"/>
-    <mergeCell ref="S48:X48"/>
-    <mergeCell ref="Y48:AO48"/>
-    <mergeCell ref="AQ48:AX48"/>
-    <mergeCell ref="AY48:BE48"/>
-    <mergeCell ref="BF48:BO48"/>
-    <mergeCell ref="BP48:CD48"/>
-    <mergeCell ref="AQ49:AX49"/>
-    <mergeCell ref="AY49:BE49"/>
-    <mergeCell ref="BF49:BO49"/>
-    <mergeCell ref="BP49:CD49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:X49"/>
-    <mergeCell ref="Y49:AO49"/>
-    <mergeCell ref="CE49:CG49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AO53"/>
-    <mergeCell ref="AQ53:AX53"/>
-    <mergeCell ref="AY53:BE53"/>
-    <mergeCell ref="BF53:BO53"/>
-    <mergeCell ref="BP53:CD53"/>
-    <mergeCell ref="CE53:CG53"/>
-    <mergeCell ref="BF51:BO51"/>
-    <mergeCell ref="BP51:CD51"/>
-    <mergeCell ref="CE51:CG51"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="CE52:CG52"/>
-    <mergeCell ref="B95:P95"/>
-    <mergeCell ref="F97:Q97"/>
-    <mergeCell ref="CE46:CG46"/>
-    <mergeCell ref="CE58:CG58"/>
-    <mergeCell ref="BP58:CD58"/>
-    <mergeCell ref="Y58:AO58"/>
-    <mergeCell ref="S58:X58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:X50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="AY54:BE54"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:X61"/>
-    <mergeCell ref="Y61:AO61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:X63"/>
-    <mergeCell ref="Y63:AO63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:X62"/>
-    <mergeCell ref="Y62:AO62"/>
-    <mergeCell ref="BF61:BO61"/>
-    <mergeCell ref="BP61:CD61"/>
-    <mergeCell ref="CE61:CG61"/>
-    <mergeCell ref="AQ62:AX62"/>
-    <mergeCell ref="AY62:BE62"/>
-    <mergeCell ref="BF62:BO62"/>
-    <mergeCell ref="BP62:CD62"/>
-    <mergeCell ref="CE62:CG62"/>
-    <mergeCell ref="AQ64:AX64"/>
-    <mergeCell ref="AY64:BE64"/>
-    <mergeCell ref="BF64:BO64"/>
-    <mergeCell ref="BP64:CD64"/>
-    <mergeCell ref="CE64:CG64"/>
-    <mergeCell ref="AQ63:AX63"/>
-    <mergeCell ref="BF63:BO63"/>
-    <mergeCell ref="BP63:CD63"/>
-    <mergeCell ref="CE63:CG63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="S64:X64"/>
-    <mergeCell ref="Y64:AO64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:X66"/>
-    <mergeCell ref="Y66:AO66"/>
-    <mergeCell ref="AQ66:AX66"/>
-    <mergeCell ref="BF66:BO66"/>
-    <mergeCell ref="BP66:CD66"/>
-    <mergeCell ref="CE66:CG66"/>
-    <mergeCell ref="AQ67:AX67"/>
-    <mergeCell ref="AY67:BE67"/>
-    <mergeCell ref="BF67:BO67"/>
-    <mergeCell ref="BP67:CD67"/>
-    <mergeCell ref="CE67:CG67"/>
-    <mergeCell ref="AQ68:AX68"/>
-    <mergeCell ref="AY68:BE68"/>
-    <mergeCell ref="BF68:BO68"/>
-    <mergeCell ref="BP68:CD68"/>
-    <mergeCell ref="CE68:CG68"/>
-    <mergeCell ref="AY66:BE66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="S69:X69"/>
-    <mergeCell ref="Y69:AO69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S70:X70"/>
-    <mergeCell ref="Y70:AO70"/>
-    <mergeCell ref="AO98:AP98"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="AQ69:AX69"/>
-    <mergeCell ref="AY69:BE69"/>
-    <mergeCell ref="BF69:BO69"/>
-    <mergeCell ref="BP69:CD69"/>
-    <mergeCell ref="CE69:CG69"/>
-    <mergeCell ref="AQ70:AX70"/>
-    <mergeCell ref="AY70:BE70"/>
-    <mergeCell ref="BF70:BO70"/>
-    <mergeCell ref="BP70:CD70"/>
-    <mergeCell ref="CE70:CG70"/>
-    <mergeCell ref="AQ71:AX71"/>
-    <mergeCell ref="AY71:BE71"/>
-    <mergeCell ref="BF71:BO71"/>
-    <mergeCell ref="BP71:CD71"/>
-    <mergeCell ref="CE71:CG71"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="Q69:R69"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="7">
@@ -24116,26 +24116,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be7cf3a7ed898d7c1d0352d09e31e541">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b283add90f51ebe902e23405d25ce4b" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -24384,10 +24364,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6F71675-0B9A-493E-889F-30CEC6F2607E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24404,20 +24415,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6F71675-0B9A-493E-889F-30CEC6F2607E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>